--- a/TNR_JDD/JDD.RO.ORG.xlsx
+++ b/TNR_JDD/JDD.RO.ORG.xlsx
@@ -4,25 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="516" windowWidth="21852" windowHeight="7092" activeTab="3"/>
+    <workbookView xWindow="516" yWindow="528" windowWidth="21852" windowHeight="8940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
     <sheet name="001" sheetId="3" r:id="rId3"/>
     <sheet name="001A" sheetId="4" r:id="rId4"/>
+    <sheet name="IHMTO" sheetId="5" r:id="rId5"/>
+    <sheet name="MODELE" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="5+SsfB1TtlfY/5RW4ATSeWbdZdUgv8kWc8k2e0YRjsc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="DkKyTpuxSFJ7BTYfxcWDa3+ch8pfWJYWLiEiIabvSSg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="175">
   <si>
     <t>Date</t>
   </si>
@@ -335,10 +337,16 @@
     <t>RO.ORG*001A*ST_DES</t>
   </si>
   <si>
+    <t>RO.IMP*001*ID_CODIMP</t>
+  </si>
+  <si>
     <t>FOREIGNKEY</t>
   </si>
   <si>
     <t>ID_CODSER*SER*ST_DES</t>
+  </si>
+  <si>
+    <t>ID_NUMZON*ZON*ST_CODZON</t>
   </si>
   <si>
     <t>SEQUENCE</t>
@@ -347,7 +355,19 @@
     <t>GES_ID</t>
   </si>
   <si>
+    <t>SER_ID</t>
+  </si>
+  <si>
     <t>LOCATOR</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>//input[@id='ST_CODZON']</t>
   </si>
   <si>
     <t>CAS_DE_TEST</t>
@@ -467,7 +487,73 @@
     <t>RO.ORG.001.REC.01.............</t>
   </si>
   <si>
-    <t>SER_ID</t>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t>NOM</t>
+  </si>
+  <si>
+    <t>XPATH (if xpath is dynamic, put ${FIELDNAME} instead of the value of the mentioned field name.</t>
+  </si>
+  <si>
+    <t>Nom de la table BDD</t>
+  </si>
+  <si>
+    <t>Champ</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.CRE.01.............</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.CRE.02.............</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.CRE.03.............</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.CRE.04.............</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.LEC.01.............</t>
+  </si>
+  <si>
+    <t>UPD.RO.ORG.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>tab_Organisation</t>
+  </si>
+  <si>
+    <t>$TAB$ID_CODGES</t>
+  </si>
+  <si>
+    <t>tab_OrganisationSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$ID_CODGES</t>
+  </si>
+  <si>
+    <t>tab_Adresses</t>
+  </si>
+  <si>
+    <t>*** TBD ***</t>
+  </si>
+  <si>
+    <t>tab_AdressesSelected</t>
+  </si>
+  <si>
+    <t>radio_NU_TYP0</t>
+  </si>
+  <si>
+    <t>//input[@id='NU_TYP0']</t>
+  </si>
+  <si>
+    <t>radio_NU_TYP1</t>
+  </si>
+  <si>
+    <t>//input[@id='NU_TYP1']</t>
   </si>
 </sst>
 </file>
@@ -478,7 +564,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -565,8 +651,20 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +729,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC22114"/>
+        <bgColor rgb="FFC22114"/>
       </patternFill>
     </fill>
   </fills>
@@ -705,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -802,16 +906,18 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -837,8 +943,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,19 +1174,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F999"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="26" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1">
@@ -2195,18 +2321,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G910"/>
+  <dimension ref="A1:AA910"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="61.44140625" customWidth="1"/>
-    <col min="3" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
-    <col min="8" max="27" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="27" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="52.8">
@@ -3780,37 +3906,37 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE996"/>
+  <dimension ref="A1:AE992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F7" sqref="F7"/>
+      <selection pane="topRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="7.21875" customWidth="1"/>
-    <col min="14" max="17" width="13.44140625" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" customWidth="1"/>
-    <col min="19" max="20" width="6.88671875" customWidth="1"/>
-    <col min="21" max="21" width="7.33203125" customWidth="1"/>
-    <col min="22" max="22" width="21.109375" customWidth="1"/>
-    <col min="23" max="23" width="27.77734375" customWidth="1"/>
-    <col min="27" max="27" width="24.21875" customWidth="1"/>
-    <col min="28" max="29" width="13.6640625" customWidth="1"/>
-    <col min="30" max="31" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="50" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.21875" customWidth="1" collapsed="1"/>
+    <col min="14" max="17" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="19" max="20" width="6.88671875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="7.33203125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="27.77734375" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="24.21875" customWidth="1" collapsed="1"/>
+    <col min="28" max="29" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="13.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" customHeight="1">
@@ -3912,155 +4038,189 @@
       <c r="A2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
     </row>
     <row r="3" spans="1:31" ht="15.75" customHeight="1">
       <c r="A3" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="77"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1">
       <c r="A4" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
+        <v>106</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1">
       <c r="A5" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
+        <v>109</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="U5" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="V5" s="45"/>
+      <c r="W5" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="X5" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA5" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1">
       <c r="A6" s="48" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -4095,27 +4255,25 @@
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1">
       <c r="A7" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="51" t="str">
-        <f t="shared" ref="B7:B12" si="0">G7</f>
-        <v>RO.ORG.001.CRE.01.............</v>
+        <v>114</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>157</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="20" t="str">
-        <f t="shared" ref="G7:G12" si="1">CONCATENATE(UPPER(C7),REPT(".",30-LEN(C7)))</f>
-        <v>RO.ORG.001.CRE.01.............</v>
+        <v>117</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="H7" s="54">
         <v>1</v>
@@ -4124,7 +4282,7 @@
         <v>87</v>
       </c>
       <c r="J7" s="55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K7" s="21">
         <v>0</v>
@@ -4133,87 +4291,84 @@
         <v>0</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="N7" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="O7" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P7" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="R7" s="54">
         <v>0</v>
       </c>
       <c r="S7" s="55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="T7" s="56" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U7" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="V7" s="51" t="str">
-        <f t="shared" ref="V7:V12" si="2">C7</f>
-        <v>RO.ORG.001.CRE.01</v>
+        <v>122</v>
+      </c>
+      <c r="V7" s="51" t="s">
+        <v>114</v>
       </c>
       <c r="W7" s="21">
         <v>1</v>
       </c>
       <c r="X7" s="56" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Y7" s="21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Z7" s="55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AA7" s="21" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AB7" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AC7" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AD7" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AE7" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1">
       <c r="A8" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>RO.ORG.001.CRE.02.............</v>
+        <v>124</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>158</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>RO.ORG.001.CRE.02.............</v>
+        <v>117</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="H8" s="54">
         <v>1</v>
@@ -4222,7 +4377,7 @@
         <v>88</v>
       </c>
       <c r="J8" s="54" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K8" s="21">
         <v>1</v>
@@ -4231,87 +4386,84 @@
         <v>10</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="N8" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="O8" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P8" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="R8" s="54">
         <v>0</v>
       </c>
       <c r="S8" s="55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="T8" s="56" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="V8" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v>RO.ORG.001.CRE.02</v>
+        <v>119</v>
+      </c>
+      <c r="V8" s="51" t="s">
+        <v>124</v>
       </c>
       <c r="W8" s="21">
         <v>2</v>
       </c>
       <c r="X8" s="56" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Y8" s="21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Z8" s="55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AA8" s="21" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AB8" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AC8" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AD8" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AE8" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="15.75" customHeight="1">
       <c r="A9" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>RO.ORG.001.CRE.03.............</v>
+        <v>129</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>159</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>RO.ORG.001.CRE.03.............</v>
+        <v>117</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="H9" s="54">
         <v>1</v>
@@ -4320,7 +4472,7 @@
         <v>89</v>
       </c>
       <c r="J9" s="55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K9" s="21">
         <v>0</v>
@@ -4329,87 +4481,84 @@
         <v>0</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="N9" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="O9" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P9" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q9" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="R9" s="54">
         <v>0</v>
       </c>
       <c r="S9" s="55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="T9" s="56" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="V9" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v>RO.ORG.001.CRE.03</v>
+        <v>122</v>
+      </c>
+      <c r="V9" s="51" t="s">
+        <v>129</v>
       </c>
       <c r="W9" s="21">
         <v>3</v>
       </c>
       <c r="X9" s="21" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Y9" s="21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Z9" s="55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AA9" s="21" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AB9" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AC9" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AD9" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AE9" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="15.75" customHeight="1">
       <c r="A10" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>RO.ORG.001.CRE.04.............</v>
+        <v>133</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>160</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>RO.ORG.001.CRE.04.............</v>
+        <v>117</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="H10" s="54">
         <v>1</v>
@@ -4418,7 +4567,7 @@
         <v>90</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K10" s="21">
         <v>1</v>
@@ -4427,87 +4576,84 @@
         <v>20</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="O10" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P10" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="R10" s="54">
         <v>0</v>
       </c>
       <c r="S10" s="55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="T10" s="56" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U10" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="V10" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v>RO.ORG.001.CRE.04</v>
+        <v>119</v>
+      </c>
+      <c r="V10" s="51" t="s">
+        <v>133</v>
       </c>
       <c r="W10" s="21">
         <v>4</v>
       </c>
       <c r="X10" s="21" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Y10" s="21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Z10" s="55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AA10" s="21" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB10" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AC10" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AD10" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AE10" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="15.75" customHeight="1">
       <c r="A11" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>RO.ORG.001.LEC.01.............</v>
+        <v>138</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>161</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F11" s="58">
         <v>1087</v>
       </c>
-      <c r="G11" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>RO.ORG.001.LEC.01.............</v>
+      <c r="G11" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="H11" s="54">
         <v>1</v>
@@ -4516,7 +4662,7 @@
         <v>91</v>
       </c>
       <c r="J11" s="54" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K11" s="21">
         <v>0</v>
@@ -4525,87 +4671,84 @@
         <v>0</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="N11" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="O11" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P11" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="R11" s="54">
         <v>0</v>
       </c>
       <c r="S11" s="55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="T11" s="56" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="V11" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v>RO.ORG.001.LEC.01</v>
+        <v>122</v>
+      </c>
+      <c r="V11" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="W11" s="21">
         <v>5</v>
       </c>
       <c r="X11" s="21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Y11" s="21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Z11" s="55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AA11" s="21" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AB11" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AC11" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AD11" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AE11" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="15.75" customHeight="1">
       <c r="A12" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>UPD.RO.ORG.001.MAJ.01.........</v>
+        <v>143</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>162</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F12" s="58">
         <v>1088</v>
       </c>
-      <c r="G12" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>UPD.RO.ORG.001.MAJ.01.........</v>
+      <c r="G12" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="H12" s="54">
         <v>1</v>
@@ -4614,7 +4757,7 @@
         <v>92</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K12" s="21">
         <v>0</v>
@@ -4623,70 +4766,69 @@
         <v>0</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="N12" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="O12" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P12" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q12" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="R12" s="54">
         <v>0</v>
       </c>
       <c r="S12" s="55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="T12" s="56" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="V12" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v>UPD.RO.ORG.001.MAJ.01</v>
+        <v>122</v>
+      </c>
+      <c r="V12" s="51" t="s">
+        <v>144</v>
       </c>
       <c r="W12" s="21">
         <v>6</v>
       </c>
       <c r="X12" s="21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Y12" s="21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Z12" s="55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AA12" s="21" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AB12" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AC12" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AD12" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AE12" s="54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="15.75" customHeight="1">
       <c r="A13" s="50" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
@@ -4720,10 +4862,10 @@
     </row>
     <row r="14" spans="1:31" ht="15.75" customHeight="1">
       <c r="A14" s="50" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
@@ -4757,10 +4899,7 @@
     </row>
     <row r="15" spans="1:31" ht="15.75" customHeight="1">
       <c r="A15" s="60"/>
-      <c r="B15" s="51">
-        <f>G15</f>
-        <v>0</v>
-      </c>
+      <c r="B15" s="51"/>
       <c r="F15" s="51"/>
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
@@ -24098,7 +24237,7 @@
       <c r="AD981" s="51"/>
       <c r="AE981" s="51"/>
     </row>
-    <row r="982" spans="1:31" ht="15.75" customHeight="1">
+    <row r="982" spans="1:31" ht="13.2">
       <c r="A982" s="60"/>
       <c r="B982" s="51"/>
       <c r="F982" s="51"/>
@@ -24118,7 +24257,7 @@
       <c r="AD982" s="51"/>
       <c r="AE982" s="51"/>
     </row>
-    <row r="983" spans="1:31" ht="15.75" customHeight="1">
+    <row r="983" spans="1:31" ht="13.2">
       <c r="A983" s="60"/>
       <c r="B983" s="51"/>
       <c r="F983" s="51"/>
@@ -24138,7 +24277,7 @@
       <c r="AD983" s="51"/>
       <c r="AE983" s="51"/>
     </row>
-    <row r="984" spans="1:31" ht="15.75" customHeight="1">
+    <row r="984" spans="1:31" ht="13.2">
       <c r="A984" s="60"/>
       <c r="B984" s="51"/>
       <c r="F984" s="51"/>
@@ -24158,7 +24297,7 @@
       <c r="AD984" s="51"/>
       <c r="AE984" s="51"/>
     </row>
-    <row r="985" spans="1:31" ht="15.75" customHeight="1">
+    <row r="985" spans="1:31" ht="13.2">
       <c r="A985" s="60"/>
       <c r="B985" s="51"/>
       <c r="F985" s="51"/>
@@ -24318,87 +24457,11 @@
       <c r="AD992" s="51"/>
       <c r="AE992" s="51"/>
     </row>
-    <row r="993" spans="1:31" ht="13.2">
-      <c r="A993" s="60"/>
-      <c r="B993" s="51"/>
-      <c r="F993" s="51"/>
-      <c r="H993" s="51"/>
-      <c r="I993" s="51"/>
-      <c r="J993" s="51"/>
-      <c r="N993" s="51"/>
-      <c r="O993" s="51"/>
-      <c r="P993" s="51"/>
-      <c r="Q993" s="51"/>
-      <c r="R993" s="51"/>
-      <c r="S993" s="51"/>
-      <c r="V993" s="51"/>
-      <c r="Z993" s="51"/>
-      <c r="AB993" s="51"/>
-      <c r="AC993" s="51"/>
-      <c r="AD993" s="51"/>
-      <c r="AE993" s="51"/>
-    </row>
-    <row r="994" spans="1:31" ht="13.2">
-      <c r="A994" s="60"/>
-      <c r="B994" s="51"/>
-      <c r="F994" s="51"/>
-      <c r="H994" s="51"/>
-      <c r="I994" s="51"/>
-      <c r="J994" s="51"/>
-      <c r="N994" s="51"/>
-      <c r="O994" s="51"/>
-      <c r="P994" s="51"/>
-      <c r="Q994" s="51"/>
-      <c r="R994" s="51"/>
-      <c r="S994" s="51"/>
-      <c r="V994" s="51"/>
-      <c r="Z994" s="51"/>
-      <c r="AB994" s="51"/>
-      <c r="AC994" s="51"/>
-      <c r="AD994" s="51"/>
-      <c r="AE994" s="51"/>
-    </row>
-    <row r="995" spans="1:31" ht="13.2">
-      <c r="A995" s="60"/>
-      <c r="B995" s="51"/>
-      <c r="F995" s="51"/>
-      <c r="H995" s="51"/>
-      <c r="I995" s="51"/>
-      <c r="J995" s="51"/>
-      <c r="N995" s="51"/>
-      <c r="O995" s="51"/>
-      <c r="P995" s="51"/>
-      <c r="Q995" s="51"/>
-      <c r="R995" s="51"/>
-      <c r="S995" s="51"/>
-      <c r="V995" s="51"/>
-      <c r="Z995" s="51"/>
-      <c r="AB995" s="51"/>
-      <c r="AC995" s="51"/>
-      <c r="AD995" s="51"/>
-      <c r="AE995" s="51"/>
-    </row>
-    <row r="996" spans="1:31" ht="13.2">
-      <c r="A996" s="60"/>
-      <c r="B996" s="51"/>
-      <c r="F996" s="51"/>
-      <c r="H996" s="51"/>
-      <c r="I996" s="51"/>
-      <c r="J996" s="51"/>
-      <c r="N996" s="51"/>
-      <c r="O996" s="51"/>
-      <c r="P996" s="51"/>
-      <c r="Q996" s="51"/>
-      <c r="R996" s="51"/>
-      <c r="S996" s="51"/>
-      <c r="V996" s="51"/>
-      <c r="Z996" s="51"/>
-      <c r="AB996" s="51"/>
-      <c r="AC996" s="51"/>
-      <c r="AD996" s="51"/>
-      <c r="AE996" s="51"/>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="Z3:AA3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -24411,16 +24474,14 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B11:B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="3" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -24454,56 +24515,56 @@
         <v>32</v>
       </c>
       <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="44"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+        <v>103</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+        <v>106</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+        <v>109</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="48" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -24515,58 +24576,58 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="50" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D7" s="26">
         <v>10</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H7" s="53" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="50" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D8" s="26">
         <v>20</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="64"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -24576,7 +24637,7 @@
       <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="64"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -24586,7 +24647,7 @@
       <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="64"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -24596,7 +24657,7 @@
       <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="64"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
@@ -24608,4 +24669,4073 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="2" max="3" width="25.88671875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13.2">
+      <c r="A1" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.2">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.2">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13.2">
+      <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.2">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13.2">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13.2">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B984"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="26.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="71"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="71"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="71"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="71"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="73"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="74"/>
+      <c r="B10" s="75"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="74"/>
+      <c r="B11" s="75"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="74"/>
+      <c r="B12" s="75"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="74"/>
+      <c r="B13" s="75"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="74"/>
+      <c r="B14" s="75"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="74"/>
+      <c r="B15" s="75"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="74"/>
+      <c r="B16" s="75"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="74"/>
+      <c r="B17" s="75"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="74"/>
+      <c r="B18" s="75"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="74"/>
+      <c r="B19" s="75"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="74"/>
+      <c r="B20" s="75"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="74"/>
+      <c r="B21" s="75"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="74"/>
+      <c r="B22" s="75"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="74"/>
+      <c r="B23" s="75"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="74"/>
+      <c r="B24" s="75"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="74"/>
+      <c r="B25" s="75"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="74"/>
+      <c r="B26" s="75"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="74"/>
+      <c r="B27" s="75"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="74"/>
+      <c r="B28" s="75"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="74"/>
+      <c r="B29" s="75"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="74"/>
+      <c r="B30" s="75"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="74"/>
+      <c r="B31" s="75"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="74"/>
+      <c r="B32" s="75"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="74"/>
+      <c r="B33" s="75"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="74"/>
+      <c r="B34" s="75"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="74"/>
+      <c r="B35" s="75"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="74"/>
+      <c r="B36" s="75"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="74"/>
+      <c r="B37" s="75"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="74"/>
+      <c r="B38" s="75"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="74"/>
+      <c r="B39" s="75"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="74"/>
+      <c r="B40" s="75"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="74"/>
+      <c r="B41" s="75"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="74"/>
+      <c r="B42" s="75"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="74"/>
+      <c r="B43" s="75"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="74"/>
+      <c r="B44" s="75"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="74"/>
+      <c r="B45" s="75"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="74"/>
+      <c r="B46" s="75"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="74"/>
+      <c r="B47" s="75"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="74"/>
+      <c r="B48" s="75"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="74"/>
+      <c r="B49" s="75"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="74"/>
+      <c r="B50" s="75"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="74"/>
+      <c r="B51" s="75"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="74"/>
+      <c r="B52" s="75"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="74"/>
+      <c r="B53" s="75"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="74"/>
+      <c r="B54" s="75"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="74"/>
+      <c r="B55" s="75"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="74"/>
+      <c r="B56" s="75"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="74"/>
+      <c r="B57" s="75"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="74"/>
+      <c r="B58" s="75"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="74"/>
+      <c r="B59" s="75"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="74"/>
+      <c r="B60" s="75"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="74"/>
+      <c r="B61" s="75"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="74"/>
+      <c r="B62" s="75"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="74"/>
+      <c r="B63" s="75"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="74"/>
+      <c r="B64" s="75"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="74"/>
+      <c r="B65" s="75"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="74"/>
+      <c r="B66" s="75"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="74"/>
+      <c r="B67" s="75"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="74"/>
+      <c r="B68" s="75"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="74"/>
+      <c r="B69" s="75"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="74"/>
+      <c r="B70" s="75"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="74"/>
+      <c r="B71" s="75"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="74"/>
+      <c r="B72" s="75"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="74"/>
+      <c r="B73" s="75"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="74"/>
+      <c r="B74" s="75"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="74"/>
+      <c r="B75" s="75"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="74"/>
+      <c r="B76" s="75"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="74"/>
+      <c r="B77" s="75"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="74"/>
+      <c r="B78" s="75"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="74"/>
+      <c r="B79" s="75"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="74"/>
+      <c r="B80" s="75"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="74"/>
+      <c r="B81" s="75"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="74"/>
+      <c r="B82" s="75"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="74"/>
+      <c r="B83" s="75"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="74"/>
+      <c r="B84" s="75"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="74"/>
+      <c r="B85" s="75"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="74"/>
+      <c r="B86" s="75"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="74"/>
+      <c r="B87" s="75"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="74"/>
+      <c r="B88" s="75"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="74"/>
+      <c r="B89" s="75"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="74"/>
+      <c r="B90" s="75"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="74"/>
+      <c r="B91" s="75"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="74"/>
+      <c r="B92" s="75"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="74"/>
+      <c r="B93" s="75"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="74"/>
+      <c r="B94" s="75"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="74"/>
+      <c r="B95" s="75"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="74"/>
+      <c r="B96" s="75"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="74"/>
+      <c r="B97" s="75"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="74"/>
+      <c r="B98" s="75"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="74"/>
+      <c r="B99" s="75"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="74"/>
+      <c r="B100" s="75"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="74"/>
+      <c r="B101" s="75"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="74"/>
+      <c r="B102" s="75"/>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="74"/>
+      <c r="B103" s="75"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="74"/>
+      <c r="B104" s="75"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="74"/>
+      <c r="B105" s="75"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="74"/>
+      <c r="B106" s="75"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="74"/>
+      <c r="B107" s="75"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="74"/>
+      <c r="B108" s="75"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="74"/>
+      <c r="B109" s="75"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="74"/>
+      <c r="B110" s="75"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="74"/>
+      <c r="B111" s="75"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="74"/>
+      <c r="B112" s="75"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="74"/>
+      <c r="B113" s="75"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="74"/>
+      <c r="B114" s="75"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="74"/>
+      <c r="B115" s="75"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="74"/>
+      <c r="B116" s="75"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="74"/>
+      <c r="B117" s="75"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="74"/>
+      <c r="B118" s="75"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="74"/>
+      <c r="B119" s="75"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="74"/>
+      <c r="B120" s="75"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="74"/>
+      <c r="B121" s="75"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="74"/>
+      <c r="B122" s="75"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="74"/>
+      <c r="B123" s="75"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="74"/>
+      <c r="B124" s="75"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="74"/>
+      <c r="B125" s="75"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="74"/>
+      <c r="B126" s="75"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="74"/>
+      <c r="B127" s="75"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="74"/>
+      <c r="B128" s="75"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="74"/>
+      <c r="B129" s="75"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="74"/>
+      <c r="B130" s="75"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="74"/>
+      <c r="B131" s="75"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="74"/>
+      <c r="B132" s="75"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="74"/>
+      <c r="B133" s="75"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="74"/>
+      <c r="B134" s="75"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="74"/>
+      <c r="B135" s="75"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="74"/>
+      <c r="B136" s="75"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="74"/>
+      <c r="B137" s="75"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="74"/>
+      <c r="B138" s="75"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="74"/>
+      <c r="B139" s="75"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="74"/>
+      <c r="B140" s="75"/>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="74"/>
+      <c r="B141" s="75"/>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="74"/>
+      <c r="B142" s="75"/>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="74"/>
+      <c r="B143" s="75"/>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="74"/>
+      <c r="B144" s="75"/>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="74"/>
+      <c r="B145" s="75"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="74"/>
+      <c r="B146" s="75"/>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="74"/>
+      <c r="B147" s="75"/>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="74"/>
+      <c r="B148" s="75"/>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="74"/>
+      <c r="B149" s="75"/>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="74"/>
+      <c r="B150" s="75"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="74"/>
+      <c r="B151" s="75"/>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="74"/>
+      <c r="B152" s="75"/>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="74"/>
+      <c r="B153" s="75"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="74"/>
+      <c r="B154" s="75"/>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="74"/>
+      <c r="B155" s="75"/>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="74"/>
+      <c r="B156" s="75"/>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="74"/>
+      <c r="B157" s="75"/>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="74"/>
+      <c r="B158" s="75"/>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="74"/>
+      <c r="B159" s="75"/>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="74"/>
+      <c r="B160" s="75"/>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="74"/>
+      <c r="B161" s="75"/>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="74"/>
+      <c r="B162" s="75"/>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="74"/>
+      <c r="B163" s="75"/>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="74"/>
+      <c r="B164" s="75"/>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="74"/>
+      <c r="B165" s="75"/>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="74"/>
+      <c r="B166" s="75"/>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="74"/>
+      <c r="B167" s="75"/>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="74"/>
+      <c r="B168" s="75"/>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="74"/>
+      <c r="B169" s="75"/>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="74"/>
+      <c r="B170" s="75"/>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="74"/>
+      <c r="B171" s="75"/>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="74"/>
+      <c r="B172" s="75"/>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="74"/>
+      <c r="B173" s="75"/>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="74"/>
+      <c r="B174" s="75"/>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="74"/>
+      <c r="B175" s="75"/>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="74"/>
+      <c r="B176" s="75"/>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="74"/>
+      <c r="B177" s="75"/>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="74"/>
+      <c r="B178" s="75"/>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="74"/>
+      <c r="B179" s="75"/>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="74"/>
+      <c r="B180" s="75"/>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="74"/>
+      <c r="B181" s="75"/>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="74"/>
+      <c r="B182" s="75"/>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="74"/>
+      <c r="B183" s="75"/>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="74"/>
+      <c r="B184" s="75"/>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="74"/>
+      <c r="B185" s="75"/>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="74"/>
+      <c r="B186" s="75"/>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="74"/>
+      <c r="B187" s="75"/>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="74"/>
+      <c r="B188" s="75"/>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="74"/>
+      <c r="B189" s="75"/>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="74"/>
+      <c r="B190" s="75"/>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="74"/>
+      <c r="B191" s="75"/>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="74"/>
+      <c r="B192" s="75"/>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="74"/>
+      <c r="B193" s="75"/>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="74"/>
+      <c r="B194" s="75"/>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="74"/>
+      <c r="B195" s="75"/>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="74"/>
+      <c r="B196" s="75"/>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="74"/>
+      <c r="B197" s="75"/>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="74"/>
+      <c r="B198" s="75"/>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="74"/>
+      <c r="B199" s="75"/>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="74"/>
+      <c r="B200" s="75"/>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="74"/>
+      <c r="B201" s="75"/>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="74"/>
+      <c r="B202" s="75"/>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="74"/>
+      <c r="B203" s="75"/>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="74"/>
+      <c r="B204" s="75"/>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="75"/>
+      <c r="B205" s="75"/>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="75"/>
+      <c r="B206" s="75"/>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="75"/>
+      <c r="B207" s="75"/>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="75"/>
+      <c r="B208" s="75"/>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="75"/>
+      <c r="B209" s="75"/>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="75"/>
+      <c r="B210" s="75"/>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="75"/>
+      <c r="B211" s="75"/>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="75"/>
+      <c r="B212" s="75"/>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="75"/>
+      <c r="B213" s="75"/>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="75"/>
+      <c r="B214" s="75"/>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="75"/>
+      <c r="B215" s="75"/>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="75"/>
+      <c r="B216" s="75"/>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="75"/>
+      <c r="B217" s="75"/>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="75"/>
+      <c r="B218" s="75"/>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="75"/>
+      <c r="B219" s="75"/>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="75"/>
+      <c r="B220" s="75"/>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="75"/>
+      <c r="B221" s="75"/>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="75"/>
+      <c r="B222" s="75"/>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="75"/>
+      <c r="B223" s="75"/>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="75"/>
+      <c r="B224" s="75"/>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="75"/>
+      <c r="B225" s="75"/>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="75"/>
+      <c r="B226" s="75"/>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="75"/>
+      <c r="B227" s="75"/>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="75"/>
+      <c r="B228" s="75"/>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="75"/>
+      <c r="B229" s="75"/>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="75"/>
+      <c r="B230" s="75"/>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="75"/>
+      <c r="B231" s="75"/>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="75"/>
+      <c r="B232" s="75"/>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="75"/>
+      <c r="B233" s="75"/>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="75"/>
+      <c r="B234" s="75"/>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="75"/>
+      <c r="B235" s="75"/>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="75"/>
+      <c r="B236" s="75"/>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="75"/>
+      <c r="B237" s="75"/>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="75"/>
+      <c r="B238" s="75"/>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="75"/>
+      <c r="B239" s="75"/>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="75"/>
+      <c r="B240" s="75"/>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="75"/>
+      <c r="B241" s="75"/>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="75"/>
+      <c r="B242" s="75"/>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="75"/>
+      <c r="B243" s="75"/>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="75"/>
+      <c r="B244" s="75"/>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="75"/>
+      <c r="B245" s="75"/>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="75"/>
+      <c r="B246" s="75"/>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="75"/>
+      <c r="B247" s="75"/>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="75"/>
+      <c r="B248" s="75"/>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="75"/>
+      <c r="B249" s="75"/>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="75"/>
+      <c r="B250" s="75"/>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="75"/>
+      <c r="B251" s="75"/>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="75"/>
+      <c r="B252" s="75"/>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="75"/>
+      <c r="B253" s="75"/>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="75"/>
+      <c r="B254" s="75"/>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="75"/>
+      <c r="B255" s="75"/>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="75"/>
+      <c r="B256" s="75"/>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="75"/>
+      <c r="B257" s="75"/>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="75"/>
+      <c r="B258" s="75"/>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="75"/>
+      <c r="B259" s="75"/>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="75"/>
+      <c r="B260" s="75"/>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="75"/>
+      <c r="B261" s="75"/>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="75"/>
+      <c r="B262" s="75"/>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="75"/>
+      <c r="B263" s="75"/>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="75"/>
+      <c r="B264" s="75"/>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="75"/>
+      <c r="B265" s="75"/>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="75"/>
+      <c r="B266" s="75"/>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="75"/>
+      <c r="B267" s="75"/>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="75"/>
+      <c r="B268" s="75"/>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="75"/>
+      <c r="B269" s="75"/>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="75"/>
+      <c r="B270" s="75"/>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="75"/>
+      <c r="B271" s="75"/>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="75"/>
+      <c r="B272" s="75"/>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="75"/>
+      <c r="B273" s="75"/>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="75"/>
+      <c r="B274" s="75"/>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="75"/>
+      <c r="B275" s="75"/>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="75"/>
+      <c r="B276" s="75"/>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="75"/>
+      <c r="B277" s="75"/>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="75"/>
+      <c r="B278" s="75"/>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="75"/>
+      <c r="B279" s="75"/>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="75"/>
+      <c r="B280" s="75"/>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="75"/>
+      <c r="B281" s="75"/>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="75"/>
+      <c r="B282" s="75"/>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="75"/>
+      <c r="B283" s="75"/>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="75"/>
+      <c r="B284" s="75"/>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="75"/>
+      <c r="B285" s="75"/>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="75"/>
+      <c r="B286" s="75"/>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="75"/>
+      <c r="B287" s="75"/>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="75"/>
+      <c r="B288" s="75"/>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="75"/>
+      <c r="B289" s="75"/>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="75"/>
+      <c r="B290" s="75"/>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="75"/>
+      <c r="B291" s="75"/>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="75"/>
+      <c r="B292" s="75"/>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="75"/>
+      <c r="B293" s="75"/>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="75"/>
+      <c r="B294" s="75"/>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="75"/>
+      <c r="B295" s="75"/>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="75"/>
+      <c r="B296" s="75"/>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="75"/>
+      <c r="B297" s="75"/>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="75"/>
+      <c r="B298" s="75"/>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="75"/>
+      <c r="B299" s="75"/>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="75"/>
+      <c r="B300" s="75"/>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="75"/>
+      <c r="B301" s="75"/>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="75"/>
+      <c r="B302" s="75"/>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="75"/>
+      <c r="B303" s="75"/>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="75"/>
+      <c r="B304" s="75"/>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="75"/>
+      <c r="B305" s="75"/>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="75"/>
+      <c r="B306" s="75"/>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="75"/>
+      <c r="B307" s="75"/>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="75"/>
+      <c r="B308" s="75"/>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="75"/>
+      <c r="B309" s="75"/>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="75"/>
+      <c r="B310" s="75"/>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="75"/>
+      <c r="B311" s="75"/>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="75"/>
+      <c r="B312" s="75"/>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="75"/>
+      <c r="B313" s="75"/>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="75"/>
+      <c r="B314" s="75"/>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="75"/>
+      <c r="B315" s="75"/>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="75"/>
+      <c r="B316" s="75"/>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="75"/>
+      <c r="B317" s="75"/>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="75"/>
+      <c r="B318" s="75"/>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="75"/>
+      <c r="B319" s="75"/>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="75"/>
+      <c r="B320" s="75"/>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="75"/>
+      <c r="B321" s="75"/>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="75"/>
+      <c r="B322" s="75"/>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="75"/>
+      <c r="B323" s="75"/>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="75"/>
+      <c r="B324" s="75"/>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="75"/>
+      <c r="B325" s="75"/>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="75"/>
+      <c r="B326" s="75"/>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="75"/>
+      <c r="B327" s="75"/>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="75"/>
+      <c r="B328" s="75"/>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="75"/>
+      <c r="B329" s="75"/>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="75"/>
+      <c r="B330" s="75"/>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="75"/>
+      <c r="B331" s="75"/>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="75"/>
+      <c r="B332" s="75"/>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="75"/>
+      <c r="B333" s="75"/>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="75"/>
+      <c r="B334" s="75"/>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="75"/>
+      <c r="B335" s="75"/>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="75"/>
+      <c r="B336" s="75"/>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="75"/>
+      <c r="B337" s="75"/>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="75"/>
+      <c r="B338" s="75"/>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="75"/>
+      <c r="B339" s="75"/>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="75"/>
+      <c r="B340" s="75"/>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="75"/>
+      <c r="B341" s="75"/>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="75"/>
+      <c r="B342" s="75"/>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="75"/>
+      <c r="B343" s="75"/>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="75"/>
+      <c r="B344" s="75"/>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="75"/>
+      <c r="B345" s="75"/>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="75"/>
+      <c r="B346" s="75"/>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="75"/>
+      <c r="B347" s="75"/>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="75"/>
+      <c r="B348" s="75"/>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="75"/>
+      <c r="B349" s="75"/>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="75"/>
+      <c r="B350" s="75"/>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="75"/>
+      <c r="B351" s="75"/>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="75"/>
+      <c r="B352" s="75"/>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="75"/>
+      <c r="B353" s="75"/>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="75"/>
+      <c r="B354" s="75"/>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="75"/>
+      <c r="B355" s="75"/>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="75"/>
+      <c r="B356" s="75"/>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="75"/>
+      <c r="B357" s="75"/>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="75"/>
+      <c r="B358" s="75"/>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="75"/>
+      <c r="B359" s="75"/>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="75"/>
+      <c r="B360" s="75"/>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="75"/>
+      <c r="B361" s="75"/>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="75"/>
+      <c r="B362" s="75"/>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="75"/>
+      <c r="B363" s="75"/>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="75"/>
+      <c r="B364" s="75"/>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="75"/>
+      <c r="B365" s="75"/>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="75"/>
+      <c r="B366" s="75"/>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="75"/>
+      <c r="B367" s="75"/>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="75"/>
+      <c r="B368" s="75"/>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="75"/>
+      <c r="B369" s="75"/>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="75"/>
+      <c r="B370" s="75"/>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="75"/>
+      <c r="B371" s="75"/>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="75"/>
+      <c r="B372" s="75"/>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="75"/>
+      <c r="B373" s="75"/>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="75"/>
+      <c r="B374" s="75"/>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="75"/>
+      <c r="B375" s="75"/>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="75"/>
+      <c r="B376" s="75"/>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="75"/>
+      <c r="B377" s="75"/>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="75"/>
+      <c r="B378" s="75"/>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="75"/>
+      <c r="B379" s="75"/>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="75"/>
+      <c r="B380" s="75"/>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="75"/>
+      <c r="B381" s="75"/>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="75"/>
+      <c r="B382" s="75"/>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="75"/>
+      <c r="B383" s="75"/>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="75"/>
+      <c r="B384" s="75"/>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="75"/>
+      <c r="B385" s="75"/>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="75"/>
+      <c r="B386" s="75"/>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="75"/>
+      <c r="B387" s="75"/>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="75"/>
+      <c r="B388" s="75"/>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="75"/>
+      <c r="B389" s="75"/>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="75"/>
+      <c r="B390" s="75"/>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="75"/>
+      <c r="B391" s="75"/>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="75"/>
+      <c r="B392" s="75"/>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="75"/>
+      <c r="B393" s="75"/>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="75"/>
+      <c r="B394" s="75"/>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="75"/>
+      <c r="B395" s="75"/>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="75"/>
+      <c r="B396" s="75"/>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="75"/>
+      <c r="B397" s="75"/>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="75"/>
+      <c r="B398" s="75"/>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="75"/>
+      <c r="B399" s="75"/>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="75"/>
+      <c r="B400" s="75"/>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="75"/>
+      <c r="B401" s="75"/>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="75"/>
+      <c r="B402" s="75"/>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="75"/>
+      <c r="B403" s="75"/>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="75"/>
+      <c r="B404" s="75"/>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="75"/>
+      <c r="B405" s="75"/>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="75"/>
+      <c r="B406" s="75"/>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="75"/>
+      <c r="B407" s="75"/>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="75"/>
+      <c r="B408" s="75"/>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="75"/>
+      <c r="B409" s="75"/>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="75"/>
+      <c r="B410" s="75"/>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="75"/>
+      <c r="B411" s="75"/>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="75"/>
+      <c r="B412" s="75"/>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="75"/>
+      <c r="B413" s="75"/>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="75"/>
+      <c r="B414" s="75"/>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="75"/>
+      <c r="B415" s="75"/>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="75"/>
+      <c r="B416" s="75"/>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="75"/>
+      <c r="B417" s="75"/>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="75"/>
+      <c r="B418" s="75"/>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="75"/>
+      <c r="B419" s="75"/>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="75"/>
+      <c r="B420" s="75"/>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="75"/>
+      <c r="B421" s="75"/>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="75"/>
+      <c r="B422" s="75"/>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="75"/>
+      <c r="B423" s="75"/>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="75"/>
+      <c r="B424" s="75"/>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="75"/>
+      <c r="B425" s="75"/>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="75"/>
+      <c r="B426" s="75"/>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="75"/>
+      <c r="B427" s="75"/>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="75"/>
+      <c r="B428" s="75"/>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="75"/>
+      <c r="B429" s="75"/>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="75"/>
+      <c r="B430" s="75"/>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="75"/>
+      <c r="B431" s="75"/>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="75"/>
+      <c r="B432" s="75"/>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="75"/>
+      <c r="B433" s="75"/>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="75"/>
+      <c r="B434" s="75"/>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="75"/>
+      <c r="B435" s="75"/>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="75"/>
+      <c r="B436" s="75"/>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="75"/>
+      <c r="B437" s="75"/>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="75"/>
+      <c r="B438" s="75"/>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="75"/>
+      <c r="B439" s="75"/>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="75"/>
+      <c r="B440" s="75"/>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="75"/>
+      <c r="B441" s="75"/>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="75"/>
+      <c r="B442" s="75"/>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="75"/>
+      <c r="B443" s="75"/>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="75"/>
+      <c r="B444" s="75"/>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="75"/>
+      <c r="B445" s="75"/>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="75"/>
+      <c r="B446" s="75"/>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="75"/>
+      <c r="B447" s="75"/>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="75"/>
+      <c r="B448" s="75"/>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="75"/>
+      <c r="B449" s="75"/>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="75"/>
+      <c r="B450" s="75"/>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="75"/>
+      <c r="B451" s="75"/>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="75"/>
+      <c r="B452" s="75"/>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="75"/>
+      <c r="B453" s="75"/>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="75"/>
+      <c r="B454" s="75"/>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="75"/>
+      <c r="B455" s="75"/>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="75"/>
+      <c r="B456" s="75"/>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="75"/>
+      <c r="B457" s="75"/>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="75"/>
+      <c r="B458" s="75"/>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="75"/>
+      <c r="B459" s="75"/>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="75"/>
+      <c r="B460" s="75"/>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="75"/>
+      <c r="B461" s="75"/>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="75"/>
+      <c r="B462" s="75"/>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="75"/>
+      <c r="B463" s="75"/>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="75"/>
+      <c r="B464" s="75"/>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="75"/>
+      <c r="B465" s="75"/>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="75"/>
+      <c r="B466" s="75"/>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="75"/>
+      <c r="B467" s="75"/>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="75"/>
+      <c r="B468" s="75"/>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="75"/>
+      <c r="B469" s="75"/>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="75"/>
+      <c r="B470" s="75"/>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="75"/>
+      <c r="B471" s="75"/>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="75"/>
+      <c r="B472" s="75"/>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="75"/>
+      <c r="B473" s="75"/>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="75"/>
+      <c r="B474" s="75"/>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="75"/>
+      <c r="B475" s="75"/>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="75"/>
+      <c r="B476" s="75"/>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="75"/>
+      <c r="B477" s="75"/>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="75"/>
+      <c r="B478" s="75"/>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="75"/>
+      <c r="B479" s="75"/>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="75"/>
+      <c r="B480" s="75"/>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="75"/>
+      <c r="B481" s="75"/>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="75"/>
+      <c r="B482" s="75"/>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="75"/>
+      <c r="B483" s="75"/>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="75"/>
+      <c r="B484" s="75"/>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="75"/>
+      <c r="B485" s="75"/>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="75"/>
+      <c r="B486" s="75"/>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="75"/>
+      <c r="B487" s="75"/>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="75"/>
+      <c r="B488" s="75"/>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="75"/>
+      <c r="B489" s="75"/>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="75"/>
+      <c r="B490" s="75"/>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="75"/>
+      <c r="B491" s="75"/>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="75"/>
+      <c r="B492" s="75"/>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="75"/>
+      <c r="B493" s="75"/>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="75"/>
+      <c r="B494" s="75"/>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="75"/>
+      <c r="B495" s="75"/>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="75"/>
+      <c r="B496" s="75"/>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="75"/>
+      <c r="B497" s="75"/>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="75"/>
+      <c r="B498" s="75"/>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="75"/>
+      <c r="B499" s="75"/>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="75"/>
+      <c r="B500" s="75"/>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="75"/>
+      <c r="B501" s="75"/>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="75"/>
+      <c r="B502" s="75"/>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="75"/>
+      <c r="B503" s="75"/>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="75"/>
+      <c r="B504" s="75"/>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="75"/>
+      <c r="B505" s="75"/>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="75"/>
+      <c r="B506" s="75"/>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="75"/>
+      <c r="B507" s="75"/>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="75"/>
+      <c r="B508" s="75"/>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="75"/>
+      <c r="B509" s="75"/>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="75"/>
+      <c r="B510" s="75"/>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="75"/>
+      <c r="B511" s="75"/>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="75"/>
+      <c r="B512" s="75"/>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="75"/>
+      <c r="B513" s="75"/>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="75"/>
+      <c r="B514" s="75"/>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="75"/>
+      <c r="B515" s="75"/>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="75"/>
+      <c r="B516" s="75"/>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="75"/>
+      <c r="B517" s="75"/>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="75"/>
+      <c r="B518" s="75"/>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="75"/>
+      <c r="B519" s="75"/>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="75"/>
+      <c r="B520" s="75"/>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="75"/>
+      <c r="B521" s="75"/>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="75"/>
+      <c r="B522" s="75"/>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="75"/>
+      <c r="B523" s="75"/>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="75"/>
+      <c r="B524" s="75"/>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="75"/>
+      <c r="B525" s="75"/>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="75"/>
+      <c r="B526" s="75"/>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="75"/>
+      <c r="B527" s="75"/>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="75"/>
+      <c r="B528" s="75"/>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="75"/>
+      <c r="B529" s="75"/>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="75"/>
+      <c r="B530" s="75"/>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="75"/>
+      <c r="B531" s="75"/>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="75"/>
+      <c r="B532" s="75"/>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="75"/>
+      <c r="B533" s="75"/>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="75"/>
+      <c r="B534" s="75"/>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="75"/>
+      <c r="B535" s="75"/>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="75"/>
+      <c r="B536" s="75"/>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="75"/>
+      <c r="B537" s="75"/>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="75"/>
+      <c r="B538" s="75"/>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="75"/>
+      <c r="B539" s="75"/>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="75"/>
+      <c r="B540" s="75"/>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="75"/>
+      <c r="B541" s="75"/>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="75"/>
+      <c r="B542" s="75"/>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="75"/>
+      <c r="B543" s="75"/>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="75"/>
+      <c r="B544" s="75"/>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="75"/>
+      <c r="B545" s="75"/>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="75"/>
+      <c r="B546" s="75"/>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="75"/>
+      <c r="B547" s="75"/>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="75"/>
+      <c r="B548" s="75"/>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="75"/>
+      <c r="B549" s="75"/>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="75"/>
+      <c r="B550" s="75"/>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="75"/>
+      <c r="B551" s="75"/>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="75"/>
+      <c r="B552" s="75"/>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="75"/>
+      <c r="B553" s="75"/>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="75"/>
+      <c r="B554" s="75"/>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="75"/>
+      <c r="B555" s="75"/>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="75"/>
+      <c r="B556" s="75"/>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="75"/>
+      <c r="B557" s="75"/>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="75"/>
+      <c r="B558" s="75"/>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="75"/>
+      <c r="B559" s="75"/>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="75"/>
+      <c r="B560" s="75"/>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="75"/>
+      <c r="B561" s="75"/>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="75"/>
+      <c r="B562" s="75"/>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="75"/>
+      <c r="B563" s="75"/>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="75"/>
+      <c r="B564" s="75"/>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="75"/>
+      <c r="B565" s="75"/>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="75"/>
+      <c r="B566" s="75"/>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="75"/>
+      <c r="B567" s="75"/>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="75"/>
+      <c r="B568" s="75"/>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="75"/>
+      <c r="B569" s="75"/>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="75"/>
+      <c r="B570" s="75"/>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="75"/>
+      <c r="B571" s="75"/>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="75"/>
+      <c r="B572" s="75"/>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="75"/>
+      <c r="B573" s="75"/>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="75"/>
+      <c r="B574" s="75"/>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="75"/>
+      <c r="B575" s="75"/>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="75"/>
+      <c r="B576" s="75"/>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="75"/>
+      <c r="B577" s="75"/>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="75"/>
+      <c r="B578" s="75"/>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="75"/>
+      <c r="B579" s="75"/>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="75"/>
+      <c r="B580" s="75"/>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="75"/>
+      <c r="B581" s="75"/>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="75"/>
+      <c r="B582" s="75"/>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="75"/>
+      <c r="B583" s="75"/>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="75"/>
+      <c r="B584" s="75"/>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="75"/>
+      <c r="B585" s="75"/>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="75"/>
+      <c r="B586" s="75"/>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="75"/>
+      <c r="B587" s="75"/>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="75"/>
+      <c r="B588" s="75"/>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="75"/>
+      <c r="B589" s="75"/>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="75"/>
+      <c r="B590" s="75"/>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="75"/>
+      <c r="B591" s="75"/>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="75"/>
+      <c r="B592" s="75"/>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="75"/>
+      <c r="B593" s="75"/>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="75"/>
+      <c r="B594" s="75"/>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="75"/>
+      <c r="B595" s="75"/>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="75"/>
+      <c r="B596" s="75"/>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="75"/>
+      <c r="B597" s="75"/>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="75"/>
+      <c r="B598" s="75"/>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="75"/>
+      <c r="B599" s="75"/>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="75"/>
+      <c r="B600" s="75"/>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="75"/>
+      <c r="B601" s="75"/>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="75"/>
+      <c r="B602" s="75"/>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="75"/>
+      <c r="B603" s="75"/>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="75"/>
+      <c r="B604" s="75"/>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="75"/>
+      <c r="B605" s="75"/>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="75"/>
+      <c r="B606" s="75"/>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="75"/>
+      <c r="B607" s="75"/>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="75"/>
+      <c r="B608" s="75"/>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="75"/>
+      <c r="B609" s="75"/>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="75"/>
+      <c r="B610" s="75"/>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="75"/>
+      <c r="B611" s="75"/>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="75"/>
+      <c r="B612" s="75"/>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="75"/>
+      <c r="B613" s="75"/>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="75"/>
+      <c r="B614" s="75"/>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="75"/>
+      <c r="B615" s="75"/>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="75"/>
+      <c r="B616" s="75"/>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="75"/>
+      <c r="B617" s="75"/>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="75"/>
+      <c r="B618" s="75"/>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="75"/>
+      <c r="B619" s="75"/>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="75"/>
+      <c r="B620" s="75"/>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="75"/>
+      <c r="B621" s="75"/>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="75"/>
+      <c r="B622" s="75"/>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="75"/>
+      <c r="B623" s="75"/>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="75"/>
+      <c r="B624" s="75"/>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="75"/>
+      <c r="B625" s="75"/>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="75"/>
+      <c r="B626" s="75"/>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="75"/>
+      <c r="B627" s="75"/>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="75"/>
+      <c r="B628" s="75"/>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="75"/>
+      <c r="B629" s="75"/>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="75"/>
+      <c r="B630" s="75"/>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="75"/>
+      <c r="B631" s="75"/>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="75"/>
+      <c r="B632" s="75"/>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="75"/>
+      <c r="B633" s="75"/>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="75"/>
+      <c r="B634" s="75"/>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="75"/>
+      <c r="B635" s="75"/>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="75"/>
+      <c r="B636" s="75"/>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="75"/>
+      <c r="B637" s="75"/>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="75"/>
+      <c r="B638" s="75"/>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="75"/>
+      <c r="B639" s="75"/>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="75"/>
+      <c r="B640" s="75"/>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="75"/>
+      <c r="B641" s="75"/>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="75"/>
+      <c r="B642" s="75"/>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="75"/>
+      <c r="B643" s="75"/>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="75"/>
+      <c r="B644" s="75"/>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="75"/>
+      <c r="B645" s="75"/>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="75"/>
+      <c r="B646" s="75"/>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="75"/>
+      <c r="B647" s="75"/>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="75"/>
+      <c r="B648" s="75"/>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="75"/>
+      <c r="B649" s="75"/>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="75"/>
+      <c r="B650" s="75"/>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="75"/>
+      <c r="B651" s="75"/>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="75"/>
+      <c r="B652" s="75"/>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="75"/>
+      <c r="B653" s="75"/>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="75"/>
+      <c r="B654" s="75"/>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="75"/>
+      <c r="B655" s="75"/>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="75"/>
+      <c r="B656" s="75"/>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="75"/>
+      <c r="B657" s="75"/>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="75"/>
+      <c r="B658" s="75"/>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="75"/>
+      <c r="B659" s="75"/>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="75"/>
+      <c r="B660" s="75"/>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="75"/>
+      <c r="B661" s="75"/>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="75"/>
+      <c r="B662" s="75"/>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="75"/>
+      <c r="B663" s="75"/>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="75"/>
+      <c r="B664" s="75"/>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="75"/>
+      <c r="B665" s="75"/>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="75"/>
+      <c r="B666" s="75"/>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="75"/>
+      <c r="B667" s="75"/>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="75"/>
+      <c r="B668" s="75"/>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="75"/>
+      <c r="B669" s="75"/>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="75"/>
+      <c r="B670" s="75"/>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="75"/>
+      <c r="B671" s="75"/>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="75"/>
+      <c r="B672" s="75"/>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="75"/>
+      <c r="B673" s="75"/>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="75"/>
+      <c r="B674" s="75"/>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="75"/>
+      <c r="B675" s="75"/>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="75"/>
+      <c r="B676" s="75"/>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="75"/>
+      <c r="B677" s="75"/>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="75"/>
+      <c r="B678" s="75"/>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="75"/>
+      <c r="B679" s="75"/>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="75"/>
+      <c r="B680" s="75"/>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="75"/>
+      <c r="B681" s="75"/>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="75"/>
+      <c r="B682" s="75"/>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="75"/>
+      <c r="B683" s="75"/>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="75"/>
+      <c r="B684" s="75"/>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="75"/>
+      <c r="B685" s="75"/>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="75"/>
+      <c r="B686" s="75"/>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="75"/>
+      <c r="B687" s="75"/>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="75"/>
+      <c r="B688" s="75"/>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="75"/>
+      <c r="B689" s="75"/>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="75"/>
+      <c r="B690" s="75"/>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="75"/>
+      <c r="B691" s="75"/>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="75"/>
+      <c r="B692" s="75"/>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="75"/>
+      <c r="B693" s="75"/>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="75"/>
+      <c r="B694" s="75"/>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="75"/>
+      <c r="B695" s="75"/>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="75"/>
+      <c r="B696" s="75"/>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="75"/>
+      <c r="B697" s="75"/>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="75"/>
+      <c r="B698" s="75"/>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="75"/>
+      <c r="B699" s="75"/>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="75"/>
+      <c r="B700" s="75"/>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="75"/>
+      <c r="B701" s="75"/>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="75"/>
+      <c r="B702" s="75"/>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="75"/>
+      <c r="B703" s="75"/>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="75"/>
+      <c r="B704" s="75"/>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="75"/>
+      <c r="B705" s="75"/>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="75"/>
+      <c r="B706" s="75"/>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="75"/>
+      <c r="B707" s="75"/>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="75"/>
+      <c r="B708" s="75"/>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="75"/>
+      <c r="B709" s="75"/>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="75"/>
+      <c r="B710" s="75"/>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="75"/>
+      <c r="B711" s="75"/>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="75"/>
+      <c r="B712" s="75"/>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="75"/>
+      <c r="B713" s="75"/>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="75"/>
+      <c r="B714" s="75"/>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="75"/>
+      <c r="B715" s="75"/>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="75"/>
+      <c r="B716" s="75"/>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="75"/>
+      <c r="B717" s="75"/>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="75"/>
+      <c r="B718" s="75"/>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="75"/>
+      <c r="B719" s="75"/>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="75"/>
+      <c r="B720" s="75"/>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="75"/>
+      <c r="B721" s="75"/>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="75"/>
+      <c r="B722" s="75"/>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="75"/>
+      <c r="B723" s="75"/>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="75"/>
+      <c r="B724" s="75"/>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="75"/>
+      <c r="B725" s="75"/>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="75"/>
+      <c r="B726" s="75"/>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="75"/>
+      <c r="B727" s="75"/>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="75"/>
+      <c r="B728" s="75"/>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="75"/>
+      <c r="B729" s="75"/>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="75"/>
+      <c r="B730" s="75"/>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="75"/>
+      <c r="B731" s="75"/>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="75"/>
+      <c r="B732" s="75"/>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="75"/>
+      <c r="B733" s="75"/>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="75"/>
+      <c r="B734" s="75"/>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="75"/>
+      <c r="B735" s="75"/>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="75"/>
+      <c r="B736" s="75"/>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="75"/>
+      <c r="B737" s="75"/>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="75"/>
+      <c r="B738" s="75"/>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="75"/>
+      <c r="B739" s="75"/>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="75"/>
+      <c r="B740" s="75"/>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="75"/>
+      <c r="B741" s="75"/>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="75"/>
+      <c r="B742" s="75"/>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="75"/>
+      <c r="B743" s="75"/>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="75"/>
+      <c r="B744" s="75"/>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="75"/>
+      <c r="B745" s="75"/>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="75"/>
+      <c r="B746" s="75"/>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="75"/>
+      <c r="B747" s="75"/>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="75"/>
+      <c r="B748" s="75"/>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="75"/>
+      <c r="B749" s="75"/>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="75"/>
+      <c r="B750" s="75"/>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="75"/>
+      <c r="B751" s="75"/>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="75"/>
+      <c r="B752" s="75"/>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="75"/>
+      <c r="B753" s="75"/>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="75"/>
+      <c r="B754" s="75"/>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="75"/>
+      <c r="B755" s="75"/>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="75"/>
+      <c r="B756" s="75"/>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="75"/>
+      <c r="B757" s="75"/>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="75"/>
+      <c r="B758" s="75"/>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="75"/>
+      <c r="B759" s="75"/>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="75"/>
+      <c r="B760" s="75"/>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="75"/>
+      <c r="B761" s="75"/>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="75"/>
+      <c r="B762" s="75"/>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="75"/>
+      <c r="B763" s="75"/>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="75"/>
+      <c r="B764" s="75"/>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="75"/>
+      <c r="B765" s="75"/>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="75"/>
+      <c r="B766" s="75"/>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="75"/>
+      <c r="B767" s="75"/>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="75"/>
+      <c r="B768" s="75"/>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="75"/>
+      <c r="B769" s="75"/>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="75"/>
+      <c r="B770" s="75"/>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="75"/>
+      <c r="B771" s="75"/>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="75"/>
+      <c r="B772" s="75"/>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="75"/>
+      <c r="B773" s="75"/>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="75"/>
+      <c r="B774" s="75"/>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="75"/>
+      <c r="B775" s="75"/>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="75"/>
+      <c r="B776" s="75"/>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="75"/>
+      <c r="B777" s="75"/>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="75"/>
+      <c r="B778" s="75"/>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="75"/>
+      <c r="B779" s="75"/>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="75"/>
+      <c r="B780" s="75"/>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="75"/>
+      <c r="B781" s="75"/>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="75"/>
+      <c r="B782" s="75"/>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="75"/>
+      <c r="B783" s="75"/>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="75"/>
+      <c r="B784" s="75"/>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="75"/>
+      <c r="B785" s="75"/>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="75"/>
+      <c r="B786" s="75"/>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="75"/>
+      <c r="B787" s="75"/>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="75"/>
+      <c r="B788" s="75"/>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="75"/>
+      <c r="B789" s="75"/>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="75"/>
+      <c r="B790" s="75"/>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="75"/>
+      <c r="B791" s="75"/>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="75"/>
+      <c r="B792" s="75"/>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="75"/>
+      <c r="B793" s="75"/>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="75"/>
+      <c r="B794" s="75"/>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="75"/>
+      <c r="B795" s="75"/>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="75"/>
+      <c r="B796" s="75"/>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="75"/>
+      <c r="B797" s="75"/>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="75"/>
+      <c r="B798" s="75"/>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="75"/>
+      <c r="B799" s="75"/>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="75"/>
+      <c r="B800" s="75"/>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="75"/>
+      <c r="B801" s="75"/>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="75"/>
+      <c r="B802" s="75"/>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="75"/>
+      <c r="B803" s="75"/>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="75"/>
+      <c r="B804" s="75"/>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="75"/>
+      <c r="B805" s="75"/>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="75"/>
+      <c r="B806" s="75"/>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="75"/>
+      <c r="B807" s="75"/>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="75"/>
+      <c r="B808" s="75"/>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="75"/>
+      <c r="B809" s="75"/>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="75"/>
+      <c r="B810" s="75"/>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="75"/>
+      <c r="B811" s="75"/>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="75"/>
+      <c r="B812" s="75"/>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="75"/>
+      <c r="B813" s="75"/>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="75"/>
+      <c r="B814" s="75"/>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="75"/>
+      <c r="B815" s="75"/>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="75"/>
+      <c r="B816" s="75"/>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="75"/>
+      <c r="B817" s="75"/>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="75"/>
+      <c r="B818" s="75"/>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="75"/>
+      <c r="B819" s="75"/>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="75"/>
+      <c r="B820" s="75"/>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="75"/>
+      <c r="B821" s="75"/>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="75"/>
+      <c r="B822" s="75"/>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="75"/>
+      <c r="B823" s="75"/>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="75"/>
+      <c r="B824" s="75"/>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="75"/>
+      <c r="B825" s="75"/>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="75"/>
+      <c r="B826" s="75"/>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" s="75"/>
+      <c r="B827" s="75"/>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" s="75"/>
+      <c r="B828" s="75"/>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" s="75"/>
+      <c r="B829" s="75"/>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" s="75"/>
+      <c r="B830" s="75"/>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" s="75"/>
+      <c r="B831" s="75"/>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="75"/>
+      <c r="B832" s="75"/>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="75"/>
+      <c r="B833" s="75"/>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" s="75"/>
+      <c r="B834" s="75"/>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="75"/>
+      <c r="B835" s="75"/>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="75"/>
+      <c r="B836" s="75"/>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="75"/>
+      <c r="B837" s="75"/>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="75"/>
+      <c r="B838" s="75"/>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="75"/>
+      <c r="B839" s="75"/>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="75"/>
+      <c r="B840" s="75"/>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" s="75"/>
+      <c r="B841" s="75"/>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" s="75"/>
+      <c r="B842" s="75"/>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" s="75"/>
+      <c r="B843" s="75"/>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="75"/>
+      <c r="B844" s="75"/>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" s="75"/>
+      <c r="B845" s="75"/>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" s="75"/>
+      <c r="B846" s="75"/>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" s="75"/>
+      <c r="B847" s="75"/>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" s="75"/>
+      <c r="B848" s="75"/>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" s="75"/>
+      <c r="B849" s="75"/>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" s="75"/>
+      <c r="B850" s="75"/>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" s="75"/>
+      <c r="B851" s="75"/>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" s="75"/>
+      <c r="B852" s="75"/>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" s="75"/>
+      <c r="B853" s="75"/>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" s="75"/>
+      <c r="B854" s="75"/>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" s="75"/>
+      <c r="B855" s="75"/>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" s="75"/>
+      <c r="B856" s="75"/>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="75"/>
+      <c r="B857" s="75"/>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" s="75"/>
+      <c r="B858" s="75"/>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" s="75"/>
+      <c r="B859" s="75"/>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" s="75"/>
+      <c r="B860" s="75"/>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" s="75"/>
+      <c r="B861" s="75"/>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" s="75"/>
+      <c r="B862" s="75"/>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" s="75"/>
+      <c r="B863" s="75"/>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" s="75"/>
+      <c r="B864" s="75"/>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="A865" s="75"/>
+      <c r="B865" s="75"/>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="A866" s="75"/>
+      <c r="B866" s="75"/>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" s="75"/>
+      <c r="B867" s="75"/>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" s="75"/>
+      <c r="B868" s="75"/>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" s="75"/>
+      <c r="B869" s="75"/>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" s="75"/>
+      <c r="B870" s="75"/>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" s="75"/>
+      <c r="B871" s="75"/>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="A872" s="75"/>
+      <c r="B872" s="75"/>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" s="75"/>
+      <c r="B873" s="75"/>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="A874" s="75"/>
+      <c r="B874" s="75"/>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="A875" s="75"/>
+      <c r="B875" s="75"/>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="A876" s="75"/>
+      <c r="B876" s="75"/>
+    </row>
+    <row r="877" spans="1:2">
+      <c r="A877" s="75"/>
+      <c r="B877" s="75"/>
+    </row>
+    <row r="878" spans="1:2">
+      <c r="A878" s="75"/>
+      <c r="B878" s="75"/>
+    </row>
+    <row r="879" spans="1:2">
+      <c r="A879" s="75"/>
+      <c r="B879" s="75"/>
+    </row>
+    <row r="880" spans="1:2">
+      <c r="A880" s="75"/>
+      <c r="B880" s="75"/>
+    </row>
+    <row r="881" spans="1:2">
+      <c r="A881" s="75"/>
+      <c r="B881" s="75"/>
+    </row>
+    <row r="882" spans="1:2">
+      <c r="A882" s="75"/>
+      <c r="B882" s="75"/>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="A883" s="75"/>
+      <c r="B883" s="75"/>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="A884" s="75"/>
+      <c r="B884" s="75"/>
+    </row>
+    <row r="885" spans="1:2">
+      <c r="A885" s="75"/>
+      <c r="B885" s="75"/>
+    </row>
+    <row r="886" spans="1:2">
+      <c r="A886" s="75"/>
+      <c r="B886" s="75"/>
+    </row>
+    <row r="887" spans="1:2">
+      <c r="A887" s="75"/>
+      <c r="B887" s="75"/>
+    </row>
+    <row r="888" spans="1:2">
+      <c r="A888" s="75"/>
+      <c r="B888" s="75"/>
+    </row>
+    <row r="889" spans="1:2">
+      <c r="A889" s="75"/>
+      <c r="B889" s="75"/>
+    </row>
+    <row r="890" spans="1:2">
+      <c r="A890" s="75"/>
+      <c r="B890" s="75"/>
+    </row>
+    <row r="891" spans="1:2">
+      <c r="A891" s="75"/>
+      <c r="B891" s="75"/>
+    </row>
+    <row r="892" spans="1:2">
+      <c r="A892" s="75"/>
+      <c r="B892" s="75"/>
+    </row>
+    <row r="893" spans="1:2">
+      <c r="A893" s="75"/>
+      <c r="B893" s="75"/>
+    </row>
+    <row r="894" spans="1:2">
+      <c r="A894" s="75"/>
+      <c r="B894" s="75"/>
+    </row>
+    <row r="895" spans="1:2">
+      <c r="A895" s="75"/>
+      <c r="B895" s="75"/>
+    </row>
+    <row r="896" spans="1:2">
+      <c r="A896" s="75"/>
+      <c r="B896" s="75"/>
+    </row>
+    <row r="897" spans="1:2">
+      <c r="A897" s="75"/>
+      <c r="B897" s="75"/>
+    </row>
+    <row r="898" spans="1:2">
+      <c r="A898" s="75"/>
+      <c r="B898" s="75"/>
+    </row>
+    <row r="899" spans="1:2">
+      <c r="A899" s="75"/>
+      <c r="B899" s="75"/>
+    </row>
+    <row r="900" spans="1:2">
+      <c r="A900" s="75"/>
+      <c r="B900" s="75"/>
+    </row>
+    <row r="901" spans="1:2">
+      <c r="A901" s="75"/>
+      <c r="B901" s="75"/>
+    </row>
+    <row r="902" spans="1:2">
+      <c r="A902" s="75"/>
+      <c r="B902" s="75"/>
+    </row>
+    <row r="903" spans="1:2">
+      <c r="A903" s="75"/>
+      <c r="B903" s="75"/>
+    </row>
+    <row r="904" spans="1:2">
+      <c r="A904" s="75"/>
+      <c r="B904" s="75"/>
+    </row>
+    <row r="905" spans="1:2">
+      <c r="A905" s="75"/>
+      <c r="B905" s="75"/>
+    </row>
+    <row r="906" spans="1:2">
+      <c r="A906" s="75"/>
+      <c r="B906" s="75"/>
+    </row>
+    <row r="907" spans="1:2">
+      <c r="A907" s="75"/>
+      <c r="B907" s="75"/>
+    </row>
+    <row r="908" spans="1:2">
+      <c r="A908" s="75"/>
+      <c r="B908" s="75"/>
+    </row>
+    <row r="909" spans="1:2">
+      <c r="A909" s="75"/>
+      <c r="B909" s="75"/>
+    </row>
+    <row r="910" spans="1:2">
+      <c r="A910" s="75"/>
+      <c r="B910" s="75"/>
+    </row>
+    <row r="911" spans="1:2">
+      <c r="A911" s="75"/>
+      <c r="B911" s="75"/>
+    </row>
+    <row r="912" spans="1:2">
+      <c r="A912" s="75"/>
+      <c r="B912" s="75"/>
+    </row>
+    <row r="913" spans="1:2">
+      <c r="A913" s="75"/>
+      <c r="B913" s="75"/>
+    </row>
+    <row r="914" spans="1:2">
+      <c r="A914" s="75"/>
+      <c r="B914" s="75"/>
+    </row>
+    <row r="915" spans="1:2">
+      <c r="A915" s="75"/>
+      <c r="B915" s="75"/>
+    </row>
+    <row r="916" spans="1:2">
+      <c r="A916" s="75"/>
+      <c r="B916" s="75"/>
+    </row>
+    <row r="917" spans="1:2">
+      <c r="A917" s="75"/>
+      <c r="B917" s="75"/>
+    </row>
+    <row r="918" spans="1:2">
+      <c r="A918" s="75"/>
+      <c r="B918" s="75"/>
+    </row>
+    <row r="919" spans="1:2">
+      <c r="A919" s="75"/>
+      <c r="B919" s="75"/>
+    </row>
+    <row r="920" spans="1:2">
+      <c r="A920" s="75"/>
+      <c r="B920" s="75"/>
+    </row>
+    <row r="921" spans="1:2">
+      <c r="A921" s="75"/>
+      <c r="B921" s="75"/>
+    </row>
+    <row r="922" spans="1:2">
+      <c r="A922" s="75"/>
+      <c r="B922" s="75"/>
+    </row>
+    <row r="923" spans="1:2">
+      <c r="A923" s="75"/>
+      <c r="B923" s="75"/>
+    </row>
+    <row r="924" spans="1:2">
+      <c r="A924" s="75"/>
+      <c r="B924" s="75"/>
+    </row>
+    <row r="925" spans="1:2">
+      <c r="A925" s="75"/>
+      <c r="B925" s="75"/>
+    </row>
+    <row r="926" spans="1:2">
+      <c r="A926" s="75"/>
+      <c r="B926" s="75"/>
+    </row>
+    <row r="927" spans="1:2">
+      <c r="A927" s="75"/>
+      <c r="B927" s="75"/>
+    </row>
+    <row r="928" spans="1:2">
+      <c r="A928" s="75"/>
+      <c r="B928" s="75"/>
+    </row>
+    <row r="929" spans="1:2">
+      <c r="A929" s="75"/>
+      <c r="B929" s="75"/>
+    </row>
+    <row r="930" spans="1:2">
+      <c r="A930" s="75"/>
+      <c r="B930" s="75"/>
+    </row>
+    <row r="931" spans="1:2">
+      <c r="A931" s="75"/>
+      <c r="B931" s="75"/>
+    </row>
+    <row r="932" spans="1:2">
+      <c r="A932" s="75"/>
+      <c r="B932" s="75"/>
+    </row>
+    <row r="933" spans="1:2">
+      <c r="A933" s="75"/>
+      <c r="B933" s="75"/>
+    </row>
+    <row r="934" spans="1:2">
+      <c r="A934" s="75"/>
+      <c r="B934" s="75"/>
+    </row>
+    <row r="935" spans="1:2">
+      <c r="A935" s="75"/>
+      <c r="B935" s="75"/>
+    </row>
+    <row r="936" spans="1:2">
+      <c r="A936" s="75"/>
+      <c r="B936" s="75"/>
+    </row>
+    <row r="937" spans="1:2">
+      <c r="A937" s="75"/>
+      <c r="B937" s="75"/>
+    </row>
+    <row r="938" spans="1:2">
+      <c r="A938" s="75"/>
+      <c r="B938" s="75"/>
+    </row>
+    <row r="939" spans="1:2">
+      <c r="A939" s="75"/>
+      <c r="B939" s="75"/>
+    </row>
+    <row r="940" spans="1:2">
+      <c r="A940" s="75"/>
+      <c r="B940" s="75"/>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="A941" s="75"/>
+      <c r="B941" s="75"/>
+    </row>
+    <row r="942" spans="1:2">
+      <c r="A942" s="75"/>
+      <c r="B942" s="75"/>
+    </row>
+    <row r="943" spans="1:2">
+      <c r="A943" s="75"/>
+      <c r="B943" s="75"/>
+    </row>
+    <row r="944" spans="1:2">
+      <c r="A944" s="75"/>
+      <c r="B944" s="75"/>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="A945" s="75"/>
+      <c r="B945" s="75"/>
+    </row>
+    <row r="946" spans="1:2">
+      <c r="A946" s="75"/>
+      <c r="B946" s="75"/>
+    </row>
+    <row r="947" spans="1:2">
+      <c r="A947" s="75"/>
+      <c r="B947" s="75"/>
+    </row>
+    <row r="948" spans="1:2">
+      <c r="A948" s="75"/>
+      <c r="B948" s="75"/>
+    </row>
+    <row r="949" spans="1:2">
+      <c r="A949" s="75"/>
+      <c r="B949" s="75"/>
+    </row>
+    <row r="950" spans="1:2">
+      <c r="A950" s="75"/>
+      <c r="B950" s="75"/>
+    </row>
+    <row r="951" spans="1:2">
+      <c r="A951" s="75"/>
+      <c r="B951" s="75"/>
+    </row>
+    <row r="952" spans="1:2">
+      <c r="A952" s="75"/>
+      <c r="B952" s="75"/>
+    </row>
+    <row r="953" spans="1:2">
+      <c r="A953" s="75"/>
+      <c r="B953" s="75"/>
+    </row>
+    <row r="954" spans="1:2">
+      <c r="A954" s="75"/>
+      <c r="B954" s="75"/>
+    </row>
+    <row r="955" spans="1:2">
+      <c r="A955" s="75"/>
+      <c r="B955" s="75"/>
+    </row>
+    <row r="956" spans="1:2">
+      <c r="A956" s="75"/>
+      <c r="B956" s="75"/>
+    </row>
+    <row r="957" spans="1:2">
+      <c r="A957" s="75"/>
+      <c r="B957" s="75"/>
+    </row>
+    <row r="958" spans="1:2">
+      <c r="A958" s="75"/>
+      <c r="B958" s="75"/>
+    </row>
+    <row r="959" spans="1:2">
+      <c r="A959" s="75"/>
+      <c r="B959" s="75"/>
+    </row>
+    <row r="960" spans="1:2">
+      <c r="A960" s="75"/>
+      <c r="B960" s="75"/>
+    </row>
+    <row r="961" spans="1:2">
+      <c r="A961" s="75"/>
+      <c r="B961" s="75"/>
+    </row>
+    <row r="962" spans="1:2">
+      <c r="A962" s="75"/>
+      <c r="B962" s="75"/>
+    </row>
+    <row r="963" spans="1:2">
+      <c r="A963" s="75"/>
+      <c r="B963" s="75"/>
+    </row>
+    <row r="964" spans="1:2">
+      <c r="A964" s="75"/>
+      <c r="B964" s="75"/>
+    </row>
+    <row r="965" spans="1:2">
+      <c r="A965" s="75"/>
+      <c r="B965" s="75"/>
+    </row>
+    <row r="966" spans="1:2">
+      <c r="A966" s="75"/>
+      <c r="B966" s="75"/>
+    </row>
+    <row r="967" spans="1:2">
+      <c r="A967" s="75"/>
+      <c r="B967" s="75"/>
+    </row>
+    <row r="968" spans="1:2">
+      <c r="A968" s="75"/>
+      <c r="B968" s="75"/>
+    </row>
+    <row r="969" spans="1:2">
+      <c r="A969" s="75"/>
+      <c r="B969" s="75"/>
+    </row>
+    <row r="970" spans="1:2">
+      <c r="A970" s="75"/>
+      <c r="B970" s="75"/>
+    </row>
+    <row r="971" spans="1:2">
+      <c r="A971" s="75"/>
+      <c r="B971" s="75"/>
+    </row>
+    <row r="972" spans="1:2">
+      <c r="A972" s="75"/>
+      <c r="B972" s="75"/>
+    </row>
+    <row r="973" spans="1:2">
+      <c r="A973" s="75"/>
+      <c r="B973" s="75"/>
+    </row>
+    <row r="974" spans="1:2">
+      <c r="A974" s="75"/>
+      <c r="B974" s="75"/>
+    </row>
+    <row r="975" spans="1:2">
+      <c r="A975" s="75"/>
+      <c r="B975" s="75"/>
+    </row>
+    <row r="976" spans="1:2">
+      <c r="A976" s="75"/>
+      <c r="B976" s="75"/>
+    </row>
+    <row r="977" spans="1:2">
+      <c r="A977" s="75"/>
+      <c r="B977" s="75"/>
+    </row>
+    <row r="978" spans="1:2">
+      <c r="A978" s="75"/>
+      <c r="B978" s="75"/>
+    </row>
+    <row r="979" spans="1:2">
+      <c r="A979" s="75"/>
+      <c r="B979" s="75"/>
+    </row>
+    <row r="980" spans="1:2">
+      <c r="A980" s="75"/>
+      <c r="B980" s="75"/>
+    </row>
+    <row r="981" spans="1:2">
+      <c r="A981" s="75"/>
+      <c r="B981" s="75"/>
+    </row>
+    <row r="982" spans="1:2">
+      <c r="A982" s="75"/>
+      <c r="B982" s="75"/>
+    </row>
+    <row r="983" spans="1:2">
+      <c r="A983" s="75"/>
+      <c r="B983" s="75"/>
+    </row>
+    <row r="984" spans="1:2">
+      <c r="A984" s="75"/>
+      <c r="B984" s="75"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TNR_JDD/JDD.RO.ORG.xlsx
+++ b/TNR_JDD/JDD.RO.ORG.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="170">
   <si>
     <t>Date</t>
   </si>
@@ -352,9 +352,6 @@
     <t>GES_ID</t>
   </si>
   <si>
-    <t>SER_ID</t>
-  </si>
-  <si>
     <t>LOCATOR</t>
   </si>
   <si>
@@ -485,6 +482,9 @@
   </si>
   <si>
     <t>RO.ORG.001.REC.01.............</t>
+  </si>
+  <si>
+    <t>SER_ID</t>
   </si>
   <si>
     <t>TAB</t>
@@ -4178,9 +4178,7 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
-      <c r="J4" s="47" t="s">
-        <v>108</v>
-      </c>
+      <c r="J4" s="47"/>
       <c r="K4" s="45"/>
       <c r="L4" s="45"/>
       <c r="M4" s="45"/>
@@ -4205,33 +4203,33 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>110</v>
-      </c>
       <c r="C5" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
       <c r="J5" s="45"/>
       <c r="K5" s="45"/>
       <c r="L5" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" s="42" t="s">
         <v>110</v>
-      </c>
-      <c r="M5" s="42" t="s">
-        <v>111</v>
       </c>
       <c r="N5" s="45"/>
       <c r="O5" s="45"/>
@@ -4240,24 +4238,24 @@
       <c r="R5" s="45"/>
       <c r="S5" s="45"/>
       <c r="T5" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U5" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V5" s="45"/>
       <c r="W5" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="X5" s="42" t="s">
         <v>110</v>
-      </c>
-      <c r="X5" s="42" t="s">
-        <v>111</v>
       </c>
       <c r="Y5" s="45"/>
       <c r="Z5" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA5" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB5" s="45"/>
       <c r="AC5" s="45"/>
@@ -4266,7 +4264,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -4301,23 +4299,23 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="51" t="str">
         <f t="shared" ref="B7:B11" si="1">G7</f>
         <v>RO.ORG.001.CRE.01.............</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="E7" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="53" t="s">
         <v>116</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>117</v>
       </c>
       <c r="G7" s="20" t="str">
         <f t="shared" ref="G7:G12" si="2">CONCATENATE(UPPER(C7),REPT(".",30-LEN(C7)))</f>
@@ -4330,7 +4328,7 @@
         <v>87.0</v>
       </c>
       <c r="J7" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K7" s="21">
         <v>0.0</v>
@@ -4339,31 +4337,31 @@
         <v>0.0</v>
       </c>
       <c r="M7" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="O7" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="54" t="s">
-        <v>121</v>
-      </c>
       <c r="P7" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q7" s="54" t="s">
         <v>120</v>
-      </c>
-      <c r="Q7" s="54" t="s">
-        <v>121</v>
       </c>
       <c r="R7" s="54">
         <v>0.0</v>
       </c>
       <c r="S7" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="T7" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="T7" s="56" t="s">
-        <v>119</v>
-      </c>
       <c r="U7" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V7" s="51" t="str">
         <f t="shared" ref="V7:V12" si="3">C7</f>
@@ -4373,49 +4371,49 @@
         <v>1.0</v>
       </c>
       <c r="X7" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y7" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z7" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA7" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB7" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="Y7" s="21" t="s">
+      <c r="AC7" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="Z7" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA7" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB7" s="54" t="s">
+      <c r="AD7" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="AC7" s="54" t="s">
+      <c r="AE7" s="54" t="s">
         <v>120</v>
-      </c>
-      <c r="AD7" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE7" s="54" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="51" t="str">
         <f t="shared" si="1"/>
         <v>RO.ORG.001.CRE.02.............</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="E8" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>126</v>
-      </c>
       <c r="F8" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G8" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4428,7 +4426,7 @@
         <v>88.0</v>
       </c>
       <c r="J8" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K8" s="21">
         <v>1.0</v>
@@ -4437,31 +4435,31 @@
         <v>10.0</v>
       </c>
       <c r="M8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="N8" s="54" t="s">
+      <c r="O8" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="O8" s="54" t="s">
-        <v>121</v>
-      </c>
       <c r="P8" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="54" t="s">
         <v>120</v>
-      </c>
-      <c r="Q8" s="54" t="s">
-        <v>121</v>
       </c>
       <c r="R8" s="54">
         <v>0.0</v>
       </c>
       <c r="S8" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="T8" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="T8" s="56" t="s">
-        <v>119</v>
-      </c>
       <c r="U8" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V8" s="51" t="str">
         <f t="shared" si="3"/>
@@ -4471,49 +4469,49 @@
         <v>2.0</v>
       </c>
       <c r="X8" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z8" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA8" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB8" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="Y8" s="21" t="s">
+      <c r="AC8" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="Z8" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA8" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB8" s="54" t="s">
+      <c r="AD8" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="AC8" s="54" t="s">
+      <c r="AE8" s="54" t="s">
         <v>120</v>
-      </c>
-      <c r="AD8" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE8" s="54" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="51" t="str">
         <f t="shared" si="1"/>
         <v>RO.ORG.001.CRE.03.............</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="E9" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>131</v>
-      </c>
       <c r="F9" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G9" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4526,7 +4524,7 @@
         <v>89.0</v>
       </c>
       <c r="J9" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K9" s="21">
         <v>0.0</v>
@@ -4535,31 +4533,31 @@
         <v>0.0</v>
       </c>
       <c r="M9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="N9" s="54" t="s">
+      <c r="O9" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="54" t="s">
-        <v>121</v>
-      </c>
       <c r="P9" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q9" s="54" t="s">
         <v>120</v>
-      </c>
-      <c r="Q9" s="54" t="s">
-        <v>121</v>
       </c>
       <c r="R9" s="54">
         <v>0.0</v>
       </c>
       <c r="S9" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="T9" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="T9" s="56" t="s">
-        <v>119</v>
-      </c>
       <c r="U9" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V9" s="51" t="str">
         <f t="shared" si="3"/>
@@ -4569,49 +4567,49 @@
         <v>3.0</v>
       </c>
       <c r="X9" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z9" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA9" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB9" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="Z9" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA9" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB9" s="54" t="s">
+      <c r="AC9" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD9" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="AC9" s="54" t="s">
+      <c r="AE9" s="54" t="s">
         <v>120</v>
-      </c>
-      <c r="AD9" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE9" s="54" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="51" t="str">
         <f t="shared" si="1"/>
         <v>RO.ORG.001.CRE.04.............</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="E10" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>135</v>
-      </c>
       <c r="F10" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G10" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4624,7 +4622,7 @@
         <v>90.0</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K10" s="21">
         <v>1.0</v>
@@ -4633,31 +4631,31 @@
         <v>20.0</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N10" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="O10" s="54" t="s">
-        <v>121</v>
-      </c>
       <c r="P10" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10" s="54" t="s">
         <v>120</v>
-      </c>
-      <c r="Q10" s="54" t="s">
-        <v>121</v>
       </c>
       <c r="R10" s="54">
         <v>0.0</v>
       </c>
       <c r="S10" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="T10" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="T10" s="56" t="s">
-        <v>119</v>
-      </c>
       <c r="U10" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V10" s="51" t="str">
         <f t="shared" si="3"/>
@@ -4667,46 +4665,46 @@
         <v>4.0</v>
       </c>
       <c r="X10" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y10" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z10" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA10" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB10" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="Z10" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA10" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB10" s="54" t="s">
+      <c r="AC10" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD10" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="AC10" s="54" t="s">
+      <c r="AE10" s="54" t="s">
         <v>120</v>
-      </c>
-      <c r="AD10" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE10" s="54" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="51" t="str">
         <f t="shared" si="1"/>
         <v>RO.ORG.001.LEC.01.............</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="E11" s="58" t="s">
         <v>139</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>140</v>
       </c>
       <c r="F11" s="59">
         <v>1087.0</v>
@@ -4722,7 +4720,7 @@
         <v>91.0</v>
       </c>
       <c r="J11" s="54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K11" s="21">
         <v>0.0</v>
@@ -4731,31 +4729,31 @@
         <v>0.0</v>
       </c>
       <c r="M11" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="N11" s="54" t="s">
+      <c r="O11" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="O11" s="54" t="s">
-        <v>121</v>
-      </c>
       <c r="P11" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q11" s="54" t="s">
         <v>120</v>
-      </c>
-      <c r="Q11" s="54" t="s">
-        <v>121</v>
       </c>
       <c r="R11" s="54">
         <v>0.0</v>
       </c>
       <c r="S11" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="T11" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="T11" s="56" t="s">
-        <v>119</v>
-      </c>
       <c r="U11" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V11" s="51" t="str">
         <f t="shared" si="3"/>
@@ -4765,45 +4763,45 @@
         <v>5.0</v>
       </c>
       <c r="X11" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y11" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z11" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA11" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB11" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="Y11" s="21" t="s">
+      <c r="AC11" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="Z11" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA11" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB11" s="54" t="s">
+      <c r="AD11" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="AC11" s="54" t="s">
+      <c r="AE11" s="54" t="s">
         <v>120</v>
-      </c>
-      <c r="AD11" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE11" s="54" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="C12" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="D12" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="E12" s="58" t="s">
         <v>146</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>147</v>
       </c>
       <c r="F12" s="59">
         <v>1088.0</v>
@@ -4819,7 +4817,7 @@
         <v>92.0</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K12" s="21">
         <v>0.0</v>
@@ -4828,31 +4826,31 @@
         <v>0.0</v>
       </c>
       <c r="M12" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="N12" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="54" t="s">
+      <c r="O12" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="O12" s="54" t="s">
-        <v>121</v>
-      </c>
       <c r="P12" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q12" s="54" t="s">
         <v>120</v>
-      </c>
-      <c r="Q12" s="54" t="s">
-        <v>121</v>
       </c>
       <c r="R12" s="54">
         <v>0.0</v>
       </c>
       <c r="S12" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="T12" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="T12" s="56" t="s">
-        <v>119</v>
-      </c>
       <c r="U12" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V12" s="51" t="str">
         <f t="shared" si="3"/>
@@ -4862,36 +4860,36 @@
         <v>6.0</v>
       </c>
       <c r="X12" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y12" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z12" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA12" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB12" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="Y12" s="21" t="s">
+      <c r="AC12" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="Z12" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA12" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB12" s="54" t="s">
+      <c r="AD12" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="AC12" s="54" t="s">
+      <c r="AE12" s="54" t="s">
         <v>120</v>
-      </c>
-      <c r="AD12" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE12" s="54" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="51" t="s">
         <v>149</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>150</v>
       </c>
       <c r="C13" s="61"/>
       <c r="D13" s="61"/>
@@ -4925,10 +4923,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="51" t="s">
         <v>151</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>152</v>
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="61"/>
@@ -24465,7 +24463,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
@@ -24476,7 +24474,7 @@
     </row>
     <row r="5">
       <c r="A5" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -24488,7 +24486,7 @@
     </row>
     <row r="6">
       <c r="A6" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -24500,54 +24498,54 @@
     </row>
     <row r="7">
       <c r="A7" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" s="26">
         <v>10.0</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H7" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" s="26">
         <v>20.0</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
@@ -24732,13 +24730,13 @@
     </row>
     <row r="5">
       <c r="A5" s="72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="73"/>
     </row>
     <row r="6">
       <c r="A6" s="74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="75"/>
     </row>

--- a/TNR_JDD/JDD.RO.ORG.xlsx
+++ b/TNR_JDD/JDD.RO.ORG.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="201">
   <si>
     <t>Date</t>
   </si>
@@ -520,18 +520,6 @@
     <t>tab_AdressesSelected</t>
   </si>
   <si>
-    <t>radio_NU_TYP0</t>
-  </si>
-  <si>
-    <t>//input[@id='NU_TYP0']</t>
-  </si>
-  <si>
-    <t>radio_NU_TYP1</t>
-  </si>
-  <si>
-    <t>//input[@id='NU_TYP1']</t>
-  </si>
-  <si>
     <t>input_Filtre_Grille</t>
   </si>
   <si>
@@ -602,6 +590,48 @@
   </si>
   <si>
     <t>RO.ORG*001*ID_CODGES</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>Groupe</t>
+  </si>
+  <si>
+    <t>$NU</t>
+  </si>
+  <si>
+    <t>IMP.RO.ORG.001.CRE.01</t>
+  </si>
+  <si>
+    <t>IMP.RO.ORG.001.CRE.02</t>
+  </si>
+  <si>
+    <t>IMP.RO.ORG.001.CRE.03</t>
+  </si>
+  <si>
+    <t>IMP.RO.ORG.001.CRE.04</t>
+  </si>
+  <si>
+    <t>IMP.RO.ORG.001.LEC.01</t>
+  </si>
+  <si>
+    <t>IMP.UPD.RO.ORG.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Sous division</t>
+  </si>
+  <si>
+    <t>Agence</t>
+  </si>
+  <si>
+    <t>Unité</t>
   </si>
 </sst>
 </file>
@@ -906,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1070,9 +1100,12 @@
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4015,13 +4048,13 @@
   <dimension ref="A1:AK985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC3" sqref="AC3"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.21875" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="24.77734375" customWidth="1"/>
@@ -4043,7 +4076,14 @@
     <col min="24" max="24" width="19.6640625" customWidth="1"/>
     <col min="27" max="27" width="24.6640625" customWidth="1"/>
     <col min="28" max="29" width="13.6640625" customWidth="1"/>
-    <col min="30" max="31" width="13.44140625" customWidth="1"/>
+    <col min="30" max="30" width="13.44140625" customWidth="1"/>
+    <col min="31" max="31" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" customHeight="1">
@@ -4062,7 +4102,7 @@
       <c r="E1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="85" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="38" t="s">
@@ -4141,30 +4181,30 @@
         <v>93</v>
       </c>
       <c r="AF1" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG1" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH1" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI1" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ1" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="AG1" s="80" t="s">
+      <c r="AK1" s="84" t="s">
         <v>185</v>
-      </c>
-      <c r="AH1" s="81" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI1" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ1" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK1" s="84" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="15.75" customHeight="1">
       <c r="A2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>190</v>
+      <c r="B2" s="42" t="s">
+        <v>186</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="41" t="s">
@@ -4202,22 +4242,22 @@
       <c r="AD2" s="42"/>
       <c r="AE2" s="42"/>
       <c r="AF2" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG2" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AH2" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AI2" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AJ2" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AK2" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="15.75" customHeight="1">
@@ -4225,7 +4265,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="45"/>
@@ -4234,10 +4274,10 @@
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="86"/>
+      <c r="K3" s="90"/>
       <c r="L3" s="44"/>
       <c r="M3" s="44"/>
       <c r="N3" s="44"/>
@@ -4261,22 +4301,22 @@
       <c r="AD3" s="44"/>
       <c r="AE3" s="44"/>
       <c r="AF3" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG3" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AH3" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AI3" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AJ3" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AK3" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="15.75" customHeight="1">
@@ -4284,7 +4324,7 @@
         <v>105</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="45"/>
@@ -4318,22 +4358,22 @@
       <c r="AD4" s="44"/>
       <c r="AE4" s="44"/>
       <c r="AF4" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG4" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AH4" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AI4" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AJ4" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AK4" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="15.75" customHeight="1">
@@ -4359,7 +4399,9 @@
       <c r="H5" s="44"/>
       <c r="I5" s="44"/>
       <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
+      <c r="K5" s="86" t="s">
+        <v>187</v>
+      </c>
       <c r="L5" s="41" t="s">
         <v>108</v>
       </c>
@@ -4420,7 +4462,7 @@
         <v>111</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
@@ -4452,22 +4494,22 @@
       <c r="AD6" s="48"/>
       <c r="AE6" s="48"/>
       <c r="AF6" s="48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG6" s="48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AH6" s="48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AI6" s="48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AJ6" s="48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AK6" s="48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="15.75" customHeight="1">
@@ -4475,7 +4517,7 @@
         <v>112</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>112</v>
@@ -4490,7 +4532,7 @@
         <v>115</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H7" s="53">
         <v>1</v>
@@ -4563,6 +4605,22 @@
       </c>
       <c r="AE7" s="53" t="s">
         <v>119</v>
+      </c>
+      <c r="AF7" s="87"/>
+      <c r="AG7" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH7" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI7" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ7" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK7" s="88" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="15.75" customHeight="1">
@@ -4570,7 +4628,7 @@
         <v>122</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>122</v>
@@ -4585,7 +4643,7 @@
         <v>115</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H8" s="53">
         <v>1</v>
@@ -4658,6 +4716,22 @@
       </c>
       <c r="AE8" s="53" t="s">
         <v>119</v>
+      </c>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH8" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI8" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ8" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK8" s="88" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="15.75" customHeight="1">
@@ -4665,7 +4739,7 @@
         <v>127</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>127</v>
@@ -4680,7 +4754,7 @@
         <v>115</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H9" s="53">
         <v>1</v>
@@ -4753,6 +4827,22 @@
       </c>
       <c r="AE9" s="53" t="s">
         <v>119</v>
+      </c>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH9" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI9" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ9" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK9" s="88" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="15.75" customHeight="1">
@@ -4760,7 +4850,7 @@
         <v>131</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>131</v>
@@ -4775,7 +4865,7 @@
         <v>115</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H10" s="53">
         <v>1</v>
@@ -4848,6 +4938,22 @@
       </c>
       <c r="AE10" s="53" t="s">
         <v>119</v>
+      </c>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH10" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI10" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ10" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK10" s="88" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="15.75" customHeight="1">
@@ -4855,7 +4961,7 @@
         <v>136</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>136</v>
@@ -4870,7 +4976,7 @@
         <v>1087</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H11" s="53">
         <v>1</v>
@@ -4943,6 +5049,24 @@
       </c>
       <c r="AE11" s="53" t="s">
         <v>119</v>
+      </c>
+      <c r="AF11" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG11" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH11" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI11" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ11" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK11" s="88" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="15.75" customHeight="1">
@@ -4965,7 +5089,7 @@
         <v>1088</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H12" s="53">
         <v>1</v>
@@ -5038,6 +5162,22 @@
       </c>
       <c r="AE12" s="53" t="s">
         <v>119</v>
+      </c>
+      <c r="AF12" s="87"/>
+      <c r="AG12" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH12" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI12" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ12" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK12" s="88" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15.75" customHeight="1">
@@ -5076,6 +5216,12 @@
       <c r="AC13" s="59"/>
       <c r="AD13" s="59"/>
       <c r="AE13" s="59"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="87"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="87"/>
     </row>
     <row r="14" spans="1:37" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
@@ -5113,6 +5259,12 @@
       <c r="AC14" s="59"/>
       <c r="AD14" s="59"/>
       <c r="AE14" s="59"/>
+      <c r="AF14" s="87"/>
+      <c r="AG14" s="87"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="87"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="87"/>
     </row>
     <row r="15" spans="1:37" ht="15.75" customHeight="1">
       <c r="A15" s="60"/>
@@ -24752,9 +24904,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -24817,24 +24971,24 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="68" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="68" t="s">
         <v>166</v>
       </c>
     </row>
@@ -24850,36 +25004,14 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="21" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -24904,10 +25036,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="69" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/TNR_JDD/JDD.RO.ORG.xlsx
+++ b/TNR_JDD/JDD.RO.ORG.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="196">
   <si>
     <t>Date</t>
   </si>
@@ -436,9 +436,6 @@
     <t>ORG92</t>
   </si>
   <si>
-    <t>ORG.RO.ORG.001.CRE.02</t>
-  </si>
-  <si>
     <t>IMP.RO.ORG.001.CRE.02.........</t>
   </si>
   <si>
@@ -473,9 +470,6 @@
   </si>
   <si>
     <t>ORG94</t>
-  </si>
-  <si>
-    <t>ORG.RO.ORG.001.CRE.04</t>
   </si>
   <si>
     <t>IMP.RO.ORG.001.CRE.04.........</t>
@@ -4613,7 +4607,7 @@
         <v>92.0</v>
       </c>
       <c r="J8" s="56" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K8" s="21">
         <v>1.0</v>
@@ -4665,7 +4659,7 @@
         <v>124</v>
       </c>
       <c r="AA8" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB8" s="56" t="s">
         <v>126</v>
@@ -4681,13 +4675,13 @@
       </c>
       <c r="AF8" s="60"/>
       <c r="AG8" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AH8" s="26" t="s">
         <v>134</v>
       </c>
       <c r="AI8" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ8" s="26" t="s">
         <v>132</v>
@@ -4698,20 +4692,20 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="53" t="str">
         <f t="shared" si="1"/>
         <v>RO.ORG.001.CRE.03.............</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="E9" s="21" t="s">
         <v>141</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>142</v>
       </c>
       <c r="F9" s="55" t="s">
         <v>123</v>
@@ -4779,7 +4773,7 @@
         <v>124</v>
       </c>
       <c r="AA9" s="59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB9" s="56" t="s">
         <v>126</v>
@@ -4795,13 +4789,13 @@
       </c>
       <c r="AF9" s="60"/>
       <c r="AG9" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH9" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI9" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="AH9" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI9" s="26" t="s">
-        <v>145</v>
       </c>
       <c r="AJ9" s="26" t="s">
         <v>132</v>
@@ -4812,20 +4806,20 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="53" t="str">
         <f t="shared" si="1"/>
         <v>RO.ORG.001.CRE.04.............</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="E10" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>148</v>
       </c>
       <c r="F10" s="55" t="s">
         <v>123</v>
@@ -4841,7 +4835,7 @@
         <v>94.0</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K10" s="21">
         <v>1.0</v>
@@ -4893,7 +4887,7 @@
         <v>124</v>
       </c>
       <c r="AA10" s="59" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AB10" s="56" t="s">
         <v>126</v>
@@ -4909,13 +4903,13 @@
       </c>
       <c r="AF10" s="60"/>
       <c r="AG10" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AH10" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI10" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AJ10" s="26" t="s">
         <v>132</v>
@@ -4926,20 +4920,20 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B11" s="53" t="str">
         <f t="shared" si="1"/>
         <v>RO.ORG.001.LEC.01.............</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="61" t="s">
         <v>153</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>155</v>
       </c>
       <c r="F11" s="62">
         <v>1087.0</v>
@@ -4955,7 +4949,7 @@
         <v>87.0</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K11" s="21">
         <v>1.0</v>
@@ -5007,7 +5001,7 @@
         <v>124</v>
       </c>
       <c r="AA11" s="59" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB11" s="56" t="s">
         <v>126</v>
@@ -5022,16 +5016,16 @@
         <v>127</v>
       </c>
       <c r="AF11" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG11" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AH11" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI11" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AJ11" s="26" t="s">
         <v>132</v>
@@ -5042,19 +5036,19 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="D12" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="E12" s="61" t="s">
         <v>162</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="61" t="s">
-        <v>164</v>
       </c>
       <c r="F12" s="62">
         <v>1088.0</v>
@@ -5122,7 +5116,7 @@
         <v>124</v>
       </c>
       <c r="AA12" s="59" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AB12" s="56" t="s">
         <v>126</v>
@@ -5138,13 +5132,13 @@
       </c>
       <c r="AF12" s="60"/>
       <c r="AG12" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH12" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AI12" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AJ12" s="26" t="s">
         <v>132</v>
@@ -5155,10 +5149,10 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" s="63"/>
       <c r="D13" s="63"/>
@@ -5200,10 +5194,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="52" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C14" s="63"/>
       <c r="D14" s="63"/>
@@ -24627,14 +24621,16 @@
         <v>112</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="H4" s="48" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="42" t="s">
@@ -24668,13 +24664,13 @@
         <v>123</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D7" s="26">
         <v>10.0</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>126</v>
@@ -24688,25 +24684,25 @@
     </row>
     <row r="8">
       <c r="A8" s="52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>123</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D8" s="26">
         <v>20.0</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>126</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H8" s="55" t="s">
         <v>123</v>
@@ -24772,123 +24768,123 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="72" t="s">
         <v>173</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="72" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>176</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="73" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="73" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="73" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -24912,10 +24908,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="74" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">

--- a/TNR_JDD/JDD.RO.ORG.xlsx
+++ b/TNR_JDD/JDD.RO.ORG.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="197">
   <si>
     <t>Date</t>
   </si>
@@ -568,10 +568,13 @@
     <t>tab_Adresses</t>
   </si>
   <si>
-    <t>*** TBD ***</t>
+    <t>//li[@class='nav-item'][2]//a[text()='Adresses']</t>
   </si>
   <si>
     <t>tab_AdressesSelected</t>
+  </si>
+  <si>
+    <t>//li[@class='nav-item'][2]//a[text()='Adresses' and starts-with(@class,'nav-link active')]</t>
   </si>
   <si>
     <t>radio_NU_TYP0</t>
@@ -4982,7 +4985,7 @@
         <v>125</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="V11" s="53" t="str">
         <f t="shared" si="3"/>
@@ -24763,7 +24766,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="2" max="3" width="25.88"/>
+    <col customWidth="1" min="2" max="2" width="25.88"/>
+    <col customWidth="1" min="3" max="3" width="77.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -24818,7 +24822,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6">
@@ -24826,10 +24830,10 @@
         <v>174</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7">
@@ -24837,10 +24841,10 @@
         <v>174</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8">
@@ -24848,10 +24852,10 @@
         <v>174</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9">
@@ -24859,10 +24863,10 @@
         <v>174</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10">
@@ -24870,10 +24874,10 @@
         <v>174</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11">
@@ -24881,10 +24885,10 @@
         <v>174</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -24908,10 +24912,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">

--- a/TNR_JDD/JDD.RO.ORG.xlsx
+++ b/TNR_JDD/JDD.RO.ORG.xlsx
@@ -358,7 +358,7 @@
     <t>ST_DESID_NUMZON</t>
   </si>
   <si>
-    <t>Scénario</t>
+    <t>SCENARIO</t>
   </si>
   <si>
     <t>RO.ORG*001*ID_CODGES</t>

--- a/TNR_JDD/JDD.RO.ORG.xlsx
+++ b/TNR_JDD/JDD.RO.ORG.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="205">
   <si>
     <t>Date</t>
   </si>
@@ -635,12 +635,6 @@
   </si>
   <si>
     <t>//button[@value='Sélectionner']</t>
-  </si>
-  <si>
-    <t>button_Racine</t>
-  </si>
-  <si>
-    <t>//button/i[@text='Racine']</t>
   </si>
   <si>
     <t>Nom de la table BDD</t>
@@ -24885,17 +24879,6 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -24917,10 +24900,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="78" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B1" s="79" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2">

--- a/TNR_JDD/JDD.RO.ORG.xlsx
+++ b/TNR_JDD/JDD.RO.ORG.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="206">
   <si>
     <t>Date</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Ordre entre les niveaux frères de l'arborescence</t>
+  </si>
+  <si>
+    <t>Démarre à 0</t>
   </si>
   <si>
     <t>ID_CODSER</t>
@@ -2645,13 +2648,16 @@
         <v>30</v>
       </c>
       <c r="F11" s="28"/>
+      <c r="G11" s="12" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>40</v>
@@ -2664,15 +2670,15 @@
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>43</v>
@@ -2684,10 +2690,10 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>43</v>
@@ -2699,13 +2705,13 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>30</v>
@@ -2714,10 +2720,10 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>36</v>
@@ -2729,18 +2735,18 @@
         <v>30</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>29</v>
@@ -2752,10 +2758,10 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>36</v>
@@ -2767,18 +2773,18 @@
         <v>30</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>29</v>
@@ -2790,10 +2796,10 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>43</v>
@@ -2808,10 +2814,10 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>43</v>
@@ -2826,13 +2832,13 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" s="27" t="s">
         <v>30</v>
@@ -2841,16 +2847,16 @@
     </row>
     <row r="23">
       <c r="A23" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E23" s="27" t="s">
         <v>30</v>
@@ -2859,10 +2865,10 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>33</v>
@@ -2877,30 +2883,30 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" s="27" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="27" t="s">
@@ -2910,13 +2916,13 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E27" s="27" t="s">
         <v>30</v>
@@ -2925,10 +2931,10 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>43</v>
@@ -2945,10 +2951,10 @@
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>28</v>
@@ -2962,10 +2968,10 @@
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" s="29" t="s">
         <v>36</v>
@@ -2977,15 +2983,15 @@
         <v>30</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>36</v>
@@ -2997,18 +3003,18 @@
         <v>30</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>29</v>
@@ -3020,13 +3026,13 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>29</v>
@@ -3038,10 +3044,10 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
@@ -3050,10 +3056,10 @@
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>40</v>
@@ -3078,10 +3084,10 @@
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>43</v>
@@ -3092,13 +3098,13 @@
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D38" s="37"/>
       <c r="E38" s="39"/>
@@ -3106,10 +3112,10 @@
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>36</v>
@@ -4098,91 +4104,91 @@
         <v>48</v>
       </c>
       <c r="J1" s="43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L1" s="42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N1" s="43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O1" s="43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P1" s="43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q1" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R1" s="43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S1" s="43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T1" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U1" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V1" s="43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W1" s="42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X1" s="42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y1" s="42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z1" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA1" s="42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB1" s="43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC1" s="43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD1" s="43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE1" s="43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF1" s="44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG1" s="44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AH1" s="44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AI1" s="44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ1" s="44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK1" s="44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AL1" s="45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -4190,11 +4196,11 @@
         <v>37</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
@@ -4202,7 +4208,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K2" s="48"/>
       <c r="L2" s="48"/>
@@ -4221,7 +4227,7 @@
       <c r="Y2" s="48"/>
       <c r="Z2" s="48"/>
       <c r="AA2" s="47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB2" s="48"/>
       <c r="AC2" s="48"/>
@@ -4237,7 +4243,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -4248,7 +4254,7 @@
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
       <c r="J3" s="49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L3" s="50"/>
       <c r="M3" s="50"/>
@@ -4265,7 +4271,7 @@
       <c r="X3" s="50"/>
       <c r="Y3" s="50"/>
       <c r="Z3" s="52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA3" s="52"/>
       <c r="AB3" s="50"/>
@@ -4282,14 +4288,14 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
       <c r="D4" s="51"/>
       <c r="E4" s="50"/>
       <c r="F4" s="49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
@@ -4326,35 +4332,35 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" s="50"/>
       <c r="G5" s="47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="50"/>
       <c r="J5" s="50"/>
       <c r="K5" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="L5" s="47" t="s">
-        <v>121</v>
-      </c>
       <c r="M5" s="47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N5" s="50"/>
       <c r="O5" s="50"/>
@@ -4363,52 +4369,52 @@
       <c r="R5" s="50"/>
       <c r="S5" s="50"/>
       <c r="T5" s="47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="U5" s="47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="V5" s="50"/>
       <c r="W5" s="47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X5" s="47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y5" s="50"/>
       <c r="Z5" s="52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA5" s="47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB5" s="50"/>
       <c r="AC5" s="50"/>
       <c r="AD5" s="50"/>
       <c r="AE5" s="50"/>
       <c r="AF5" s="47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG5" s="47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AH5" s="47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AI5" s="47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AJ5" s="47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK5" s="47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL5" s="47"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
@@ -4450,23 +4456,23 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B7" s="57" t="str">
         <f t="shared" ref="B7:B11" si="1">G7</f>
         <v>RO.ORG.001.CRE.01.............</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G7" s="24" t="str">
         <f t="shared" ref="G7:G12" si="2">CONCATENATE(UPPER(C7),REPT(".",30-LEN(C7)))</f>
@@ -4479,40 +4485,40 @@
         <v>91.0</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K7" s="12">
         <v>0.0</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N7" s="60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O7" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="P7" s="60" t="s">
-        <v>132</v>
-      </c>
       <c r="Q7" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R7" s="60">
         <v>0.0</v>
       </c>
       <c r="S7" s="61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T7" s="62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V7" s="57" t="str">
         <f t="shared" ref="V7:V11" si="3">C7</f>
@@ -4522,68 +4528,68 @@
         <v>1.0</v>
       </c>
       <c r="X7" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z7" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="Y7" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z7" s="61" t="s">
-        <v>130</v>
-      </c>
       <c r="AA7" s="63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB7" s="60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC7" s="60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD7" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AE7" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF7" s="64"/>
       <c r="AG7" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH7" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AI7" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ7" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK7" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL7" s="45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B8" s="57" t="str">
         <f t="shared" si="1"/>
         <v>RO.ORG.001.CRE.02.............</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G8" s="24" t="str">
         <f t="shared" si="2"/>
@@ -4596,7 +4602,7 @@
         <v>92.0</v>
       </c>
       <c r="J8" s="60" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K8" s="12">
         <v>1.0</v>
@@ -4605,31 +4611,31 @@
         <v>10.0</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N8" s="60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O8" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="P8" s="60" t="s">
-        <v>132</v>
-      </c>
       <c r="Q8" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R8" s="60">
         <v>0.0</v>
       </c>
       <c r="S8" s="61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T8" s="62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V8" s="57" t="str">
         <f t="shared" si="3"/>
@@ -4639,68 +4645,68 @@
         <v>2.0</v>
       </c>
       <c r="X8" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z8" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="Y8" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z8" s="61" t="s">
-        <v>130</v>
-      </c>
       <c r="AA8" s="63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AB8" s="60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC8" s="60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD8" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AE8" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF8" s="64"/>
       <c r="AG8" s="29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH8" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI8" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ8" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK8" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL8" s="45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B9" s="57" t="str">
         <f t="shared" si="1"/>
         <v>RO.ORG.001.CRE.03.............</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G9" s="24" t="str">
         <f t="shared" si="2"/>
@@ -4713,40 +4719,40 @@
         <v>93.0</v>
       </c>
       <c r="J9" s="61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K9" s="12">
         <v>0.0</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" s="60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="P9" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="P9" s="60" t="s">
-        <v>132</v>
-      </c>
       <c r="Q9" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R9" s="60">
         <v>0.0</v>
       </c>
       <c r="S9" s="61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T9" s="62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V9" s="57" t="str">
         <f t="shared" si="3"/>
@@ -4756,68 +4762,68 @@
         <v>3.0</v>
       </c>
       <c r="X9" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z9" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA9" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB9" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC9" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD9" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="Y9" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z9" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA9" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB9" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC9" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD9" s="60" t="s">
-        <v>133</v>
-      </c>
       <c r="AE9" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF9" s="64"/>
       <c r="AG9" s="29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AH9" s="29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AI9" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AJ9" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL9" s="45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B10" s="57" t="str">
         <f t="shared" si="1"/>
         <v>RO.ORG.001.CRE.04.............</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G10" s="24" t="str">
         <f t="shared" si="2"/>
@@ -4830,7 +4836,7 @@
         <v>94.0</v>
       </c>
       <c r="J10" s="60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K10" s="12">
         <v>1.0</v>
@@ -4839,31 +4845,31 @@
         <v>20.0</v>
       </c>
       <c r="M10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="O10" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="N10" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="O10" s="60" t="s">
+      <c r="P10" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="P10" s="60" t="s">
-        <v>132</v>
-      </c>
       <c r="Q10" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R10" s="60">
         <v>0.0</v>
       </c>
       <c r="S10" s="61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T10" s="62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V10" s="57" t="str">
         <f t="shared" si="3"/>
@@ -4873,65 +4879,65 @@
         <v>4.0</v>
       </c>
       <c r="X10" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z10" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA10" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB10" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC10" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD10" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="Y10" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z10" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA10" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB10" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC10" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD10" s="60" t="s">
-        <v>133</v>
-      </c>
       <c r="AE10" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF10" s="64"/>
       <c r="AG10" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AH10" s="29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AI10" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AJ10" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL10" s="45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B11" s="57" t="str">
         <f t="shared" si="1"/>
         <v>RO.ORG.001.LEC.01.............</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F11" s="66">
         <v>1087.0</v>
@@ -4947,7 +4953,7 @@
         <v>87.0</v>
       </c>
       <c r="J11" s="60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K11" s="12">
         <v>1.0</v>
@@ -4956,31 +4962,31 @@
         <v>11.0</v>
       </c>
       <c r="M11" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="N11" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="N11" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="O11" s="60" t="s">
+      <c r="P11" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="P11" s="60" t="s">
-        <v>132</v>
-      </c>
       <c r="Q11" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R11" s="60">
         <v>0.0</v>
       </c>
       <c r="S11" s="61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T11" s="62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V11" s="57" t="str">
         <f t="shared" si="3"/>
@@ -4990,64 +4996,64 @@
         <v>5.0</v>
       </c>
       <c r="X11" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z11" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="Y11" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z11" s="61" t="s">
-        <v>130</v>
-      </c>
       <c r="AA11" s="63" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB11" s="60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC11" s="60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD11" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AE11" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF11" s="29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG11" s="29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AH11" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AI11" s="29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AJ11" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK11" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL11" s="45"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F12" s="66">
         <v>1088.0</v>
@@ -5063,95 +5069,95 @@
         <v>88.0</v>
       </c>
       <c r="J12" s="61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K12" s="12">
         <v>0.0</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N12" s="60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O12" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="P12" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="P12" s="60" t="s">
-        <v>132</v>
-      </c>
       <c r="Q12" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R12" s="60">
         <v>0.0</v>
       </c>
       <c r="S12" s="61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T12" s="62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V12" s="60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="W12" s="12">
         <v>6.0</v>
       </c>
       <c r="X12" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z12" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="Y12" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z12" s="61" t="s">
-        <v>130</v>
-      </c>
       <c r="AA12" s="63" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB12" s="60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC12" s="60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD12" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AE12" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF12" s="64"/>
       <c r="AG12" s="29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AH12" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AI12" s="29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AJ12" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK12" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL12" s="45"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="56" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C13" s="67"/>
       <c r="D13" s="67"/>
@@ -5194,10 +5200,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
@@ -24567,22 +24573,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="42" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G1" s="42" t="s">
         <v>34</v>
@@ -24601,13 +24607,13 @@
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
       <c r="G2" s="46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H2" s="50"/>
     </row>
     <row r="3">
       <c r="A3" s="46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -24619,10 +24625,10 @@
     </row>
     <row r="4">
       <c r="A4" s="46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
@@ -24630,12 +24636,12 @@
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" s="52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" s="50"/>
       <c r="C5" s="50"/>
@@ -24647,7 +24653,7 @@
     </row>
     <row r="6">
       <c r="A6" s="53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
@@ -24659,54 +24665,54 @@
     </row>
     <row r="7">
       <c r="A7" s="56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D7" s="29">
         <v>10.0</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D8" s="29">
         <v>20.0</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G8" s="58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
@@ -24770,112 +24776,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="77" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="77" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="77" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -24899,10 +24905,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B1" s="79" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
@@ -24913,25 +24919,25 @@
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B3" s="81"/>
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4" s="81"/>
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" s="81"/>
     </row>
     <row r="6">
       <c r="A6" s="82" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6" s="83"/>
     </row>

--- a/TNR_JDD/JDD.RO.ORG.xlsx
+++ b/TNR_JDD/JDD.RO.ORG.xlsx
@@ -4503,7 +4503,7 @@
         <v>134</v>
       </c>
       <c r="P7" s="60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="60" t="s">
         <v>134</v>

--- a/TNR_JDD/JDD.RO.ORG.xlsx
+++ b/TNR_JDD/JDD.RO.ORG.xlsx
@@ -4506,7 +4506,7 @@
         <v>131</v>
       </c>
       <c r="Q7" s="60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="R7" s="60">
         <v>0.0</v>
@@ -4543,13 +4543,13 @@
         <v>133</v>
       </c>
       <c r="AC7" s="60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AD7" s="60" t="s">
         <v>134</v>
       </c>
       <c r="AE7" s="60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AF7" s="64"/>
       <c r="AG7" s="29" t="s">
@@ -4620,10 +4620,10 @@
         <v>134</v>
       </c>
       <c r="P8" s="60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="R8" s="60">
         <v>0.0</v>
@@ -4660,13 +4660,13 @@
         <v>133</v>
       </c>
       <c r="AC8" s="60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AD8" s="60" t="s">
         <v>134</v>
       </c>
       <c r="AE8" s="60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AF8" s="64"/>
       <c r="AG8" s="29" t="s">
@@ -4737,10 +4737,10 @@
         <v>134</v>
       </c>
       <c r="P9" s="60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q9" s="60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="R9" s="60">
         <v>0.0</v>
@@ -4777,13 +4777,13 @@
         <v>133</v>
       </c>
       <c r="AC9" s="60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AD9" s="60" t="s">
         <v>134</v>
       </c>
       <c r="AE9" s="60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AF9" s="64"/>
       <c r="AG9" s="29" t="s">
@@ -4854,10 +4854,10 @@
         <v>134</v>
       </c>
       <c r="P10" s="60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="R10" s="60">
         <v>0.0</v>
@@ -4894,13 +4894,13 @@
         <v>133</v>
       </c>
       <c r="AC10" s="60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AD10" s="60" t="s">
         <v>134</v>
       </c>
       <c r="AE10" s="60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AF10" s="64"/>
       <c r="AG10" s="29" t="s">

--- a/TNR_JDD/JDD.RO.ORG.xlsx
+++ b/TNR_JDD/JDD.RO.ORG.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="207">
   <si>
     <t>Date</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>$SEQUENCEID</t>
+  </si>
+  <si>
+    <t>$ORDRE</t>
   </si>
   <si>
     <t>$NULL</t>
@@ -4481,44 +4484,44 @@
       <c r="H7" s="60">
         <v>1.0</v>
       </c>
-      <c r="I7" s="60">
-        <v>91.0</v>
+      <c r="I7" s="60" t="s">
+        <v>131</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K7" s="12">
         <v>0.0</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M7" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="N7" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="O7" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="P7" s="60" t="s">
-        <v>131</v>
-      </c>
       <c r="Q7" s="60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R7" s="60">
         <v>0.0</v>
       </c>
       <c r="S7" s="61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T7" s="62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="V7" s="57" t="str">
         <f t="shared" ref="V7:V11" si="3">C7</f>
@@ -4528,65 +4531,65 @@
         <v>1.0</v>
       </c>
       <c r="X7" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z7" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="Y7" s="12" t="s">
+      <c r="AA7" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB7" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC7" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="Z7" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA7" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB7" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC7" s="60" t="s">
-        <v>131</v>
-      </c>
       <c r="AD7" s="60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE7" s="60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF7" s="64"/>
       <c r="AG7" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH7" s="29" t="s">
         <v>128</v>
       </c>
       <c r="AI7" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ7" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK7" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL7" s="45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B8" s="57" t="str">
         <f t="shared" si="1"/>
         <v>RO.ORG.001.CRE.02.............</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F8" s="59" t="s">
         <v>130</v>
@@ -4598,11 +4601,11 @@
       <c r="H8" s="60">
         <v>1.0</v>
       </c>
-      <c r="I8" s="60">
-        <v>92.0</v>
+      <c r="I8" s="60" t="s">
+        <v>131</v>
       </c>
       <c r="J8" s="60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K8" s="12">
         <v>1.0</v>
@@ -4611,31 +4614,31 @@
         <v>10.0</v>
       </c>
       <c r="M8" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="N8" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="O8" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="P8" s="60" t="s">
-        <v>131</v>
-      </c>
       <c r="Q8" s="60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R8" s="60">
         <v>0.0</v>
       </c>
       <c r="S8" s="61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T8" s="62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V8" s="57" t="str">
         <f t="shared" si="3"/>
@@ -4645,65 +4648,65 @@
         <v>2.0</v>
       </c>
       <c r="X8" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z8" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="Y8" s="12" t="s">
+      <c r="AA8" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB8" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC8" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="Z8" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA8" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB8" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC8" s="60" t="s">
-        <v>131</v>
-      </c>
       <c r="AD8" s="60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE8" s="60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF8" s="64"/>
       <c r="AG8" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AH8" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI8" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ8" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK8" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL8" s="45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B9" s="57" t="str">
         <f t="shared" si="1"/>
         <v>RO.ORG.001.CRE.03.............</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F9" s="59" t="s">
         <v>130</v>
@@ -4715,44 +4718,44 @@
       <c r="H9" s="60">
         <v>1.0</v>
       </c>
-      <c r="I9" s="60">
-        <v>93.0</v>
+      <c r="I9" s="60" t="s">
+        <v>131</v>
       </c>
       <c r="J9" s="61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K9" s="12">
         <v>0.0</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="N9" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="O9" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="P9" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="N9" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="O9" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="P9" s="60" t="s">
-        <v>131</v>
-      </c>
       <c r="Q9" s="60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R9" s="60">
         <v>0.0</v>
       </c>
       <c r="S9" s="61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T9" s="62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="V9" s="57" t="str">
         <f t="shared" si="3"/>
@@ -4762,65 +4765,65 @@
         <v>3.0</v>
       </c>
       <c r="X9" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z9" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA9" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB9" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC9" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD9" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="Y9" s="12" t="s">
+      <c r="AE9" s="60" t="s">
         <v>132</v>
-      </c>
-      <c r="Z9" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA9" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB9" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC9" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD9" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE9" s="60" t="s">
-        <v>131</v>
       </c>
       <c r="AF9" s="64"/>
       <c r="AG9" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AH9" s="29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AI9" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AJ9" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL9" s="45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B10" s="57" t="str">
         <f t="shared" si="1"/>
         <v>RO.ORG.001.CRE.04.............</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F10" s="59" t="s">
         <v>130</v>
@@ -4832,11 +4835,11 @@
       <c r="H10" s="60">
         <v>1.0</v>
       </c>
-      <c r="I10" s="60">
-        <v>94.0</v>
+      <c r="I10" s="60" t="s">
+        <v>131</v>
       </c>
       <c r="J10" s="60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K10" s="12">
         <v>1.0</v>
@@ -4845,31 +4848,31 @@
         <v>20.0</v>
       </c>
       <c r="M10" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="N10" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="O10" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="P10" s="60" t="s">
-        <v>131</v>
-      </c>
       <c r="Q10" s="60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R10" s="60">
         <v>0.0</v>
       </c>
       <c r="S10" s="61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T10" s="62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V10" s="57" t="str">
         <f t="shared" si="3"/>
@@ -4879,65 +4882,65 @@
         <v>4.0</v>
       </c>
       <c r="X10" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z10" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA10" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB10" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC10" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD10" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="Y10" s="12" t="s">
+      <c r="AE10" s="60" t="s">
         <v>132</v>
-      </c>
-      <c r="Z10" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA10" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB10" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC10" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD10" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE10" s="60" t="s">
-        <v>131</v>
       </c>
       <c r="AF10" s="64"/>
       <c r="AG10" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH10" s="29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AI10" s="29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ10" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK10" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL10" s="45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B11" s="57" t="str">
         <f t="shared" si="1"/>
         <v>RO.ORG.001.LEC.01.............</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F11" s="66">
         <v>1087.0</v>
@@ -4953,7 +4956,7 @@
         <v>87.0</v>
       </c>
       <c r="J11" s="60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K11" s="12">
         <v>1.0</v>
@@ -4962,31 +4965,31 @@
         <v>11.0</v>
       </c>
       <c r="M11" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N11" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="N11" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="O11" s="60" t="s">
+      <c r="P11" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="P11" s="60" t="s">
-        <v>133</v>
-      </c>
       <c r="Q11" s="60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R11" s="60">
         <v>0.0</v>
       </c>
       <c r="S11" s="61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T11" s="62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V11" s="57" t="str">
         <f t="shared" si="3"/>
@@ -4996,64 +4999,64 @@
         <v>5.0</v>
       </c>
       <c r="X11" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z11" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="Y11" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z11" s="61" t="s">
-        <v>131</v>
-      </c>
       <c r="AA11" s="63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB11" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC11" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD11" s="60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE11" s="60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF11" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG11" s="29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AH11" s="29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AI11" s="29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AJ11" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK11" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL11" s="45"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F12" s="66">
         <v>1088.0</v>
@@ -5069,95 +5072,95 @@
         <v>88.0</v>
       </c>
       <c r="J12" s="61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K12" s="12">
         <v>0.0</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N12" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O12" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="P12" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="P12" s="60" t="s">
-        <v>133</v>
-      </c>
       <c r="Q12" s="60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R12" s="60">
         <v>0.0</v>
       </c>
       <c r="S12" s="61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T12" s="62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="V12" s="60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="W12" s="12">
         <v>6.0</v>
       </c>
       <c r="X12" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z12" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="Y12" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z12" s="61" t="s">
-        <v>131</v>
-      </c>
       <c r="AA12" s="63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AB12" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC12" s="60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD12" s="60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE12" s="60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF12" s="64"/>
       <c r="AG12" s="29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AH12" s="29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AI12" s="29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AJ12" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK12" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL12" s="45"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="56" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C13" s="67"/>
       <c r="D13" s="67"/>
@@ -5200,10 +5203,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
@@ -24628,7 +24631,7 @@
         <v>119</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
@@ -24665,25 +24668,25 @@
     </row>
     <row r="7">
       <c r="A7" s="56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D7" s="29">
         <v>10.0</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H7" s="59" t="s">
         <v>130</v>
@@ -24691,25 +24694,25 @@
     </row>
     <row r="8">
       <c r="A8" s="56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>130</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D8" s="29">
         <v>20.0</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G8" s="58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H8" s="59" t="s">
         <v>130</v>
@@ -24776,112 +24779,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="75" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="77" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="77" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="77" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -24905,10 +24908,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B1" s="79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2">
